--- a/data/client_fact_table.xlsx
+++ b/data/client_fact_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott Morgan\Documents\GitHub\groq-streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5216D45-08F7-42A8-B9FF-3F74A9B892D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2323357B-FF9A-4BEF-B1CB-1EB42E1C0C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1635" windowWidth="24855" windowHeight="13005" xr2:uid="{C3ECF384-21A7-4085-9144-E03C67FB06C3}"/>
+    <workbookView xWindow="525" yWindow="45" windowWidth="24855" windowHeight="13290" xr2:uid="{C3ECF384-21A7-4085-9144-E03C67FB06C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1721,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F016C944-B6D5-483F-8AF8-5BC317EFBF5C}">
-  <dimension ref="A2:IY16"/>
+  <dimension ref="A1:IY15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DX14" sqref="A14:XFD23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,783 +1882,1292 @@
     <col min="244" max="259" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>168</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>181</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>182</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>183</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>190</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>191</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>224</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>225</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>226</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>227</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>228</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>229</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>230</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>231</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>232</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>233</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>234</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>235</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>236</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>237</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>238</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>239</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>240</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>241</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>242</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>243</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>244</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>245</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>246</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>247</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>248</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>249</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>250</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>251</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>252</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>253</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>254</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>255</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>256</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>257</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>258</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>259</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>260</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>261</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>262</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>263</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>264</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>265</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>266</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>267</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>268</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>269</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>270</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>271</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>272</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>180</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>281</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>282</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>300</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>283</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>284</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>285</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>299</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>286</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>287</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>288</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>298</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>289</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>290</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>291</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>297</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>292</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>293</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>294</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>296</v>
+      </c>
+      <c r="II1" t="s">
+        <v>295</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>359</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>360</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>361</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>362</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>363</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>364</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>365</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>366</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>367</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>368</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>369</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>370</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>371</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>372</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>373</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>374</v>
+      </c>
+    </row>
     <row r="2" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="2">
+        <v>67633</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>179</v>
-      </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>118</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>120</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>124</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>125</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>126</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>128</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>129</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>130</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>132</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>133</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>135</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>136</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>137</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>138</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>139</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>141</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>144</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>146</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>148</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>149</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>151</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>153</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>154</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>155</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>156</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>157</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>159</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>160</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>161</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>164</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>167</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>168</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>181</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>182</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>183</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>184</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>185</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>186</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>187</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>188</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>189</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>190</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>191</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>192</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>223</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>224</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>225</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>226</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>227</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>228</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>229</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>230</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>231</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>232</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>233</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>234</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>235</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>236</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>237</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>238</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>239</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>240</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>241</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>242</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>243</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>244</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>245</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>246</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>247</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>248</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>249</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>250</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>251</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>252</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>253</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>254</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>255</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>256</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>257</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>258</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>259</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>260</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>261</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>262</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>265</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>266</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>267</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>268</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>269</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>270</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>271</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>272</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>193</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>194</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>195</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>196</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>197</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>198</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>199</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>200</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>201</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>202</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>204</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>205</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>206</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>207</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>208</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>209</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>210</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>211</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>212</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>213</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>214</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>215</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>216</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>217</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>218</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>219</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>221</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>180</v>
+        <v>308</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4781139.9638692401</v>
+      </c>
+      <c r="Q2">
+        <v>34.5</v>
+      </c>
+      <c r="R2">
+        <v>26</v>
+      </c>
+      <c r="S2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="T2">
+        <v>10.7</v>
+      </c>
+      <c r="U2">
+        <v>13.1</v>
+      </c>
+      <c r="V2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W2">
+        <v>11.2</v>
+      </c>
+      <c r="X2">
+        <v>14.8</v>
+      </c>
+      <c r="Y2">
+        <v>6.9</v>
+      </c>
+      <c r="Z2">
+        <v>7.8</v>
+      </c>
+      <c r="AA2">
+        <v>5.4</v>
+      </c>
+      <c r="AB2">
+        <v>14.3</v>
+      </c>
+      <c r="AC2">
+        <v>3.5</v>
+      </c>
+      <c r="AD2">
+        <v>6.3</v>
+      </c>
+      <c r="AE2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF2">
+        <v>4.3</v>
+      </c>
+      <c r="AG2">
+        <v>2.1</v>
+      </c>
+      <c r="AH2">
+        <v>2.8</v>
+      </c>
+      <c r="AI2">
+        <v>1.3</v>
+      </c>
+      <c r="AJ2">
+        <v>2.4</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>4.95</v>
+      </c>
+      <c r="EB2">
+        <v>9.1200427345405295</v>
+      </c>
+      <c r="EC2">
+        <v>11.78</v>
+      </c>
+      <c r="ED2">
+        <v>4.2923300170262699</v>
+      </c>
+      <c r="EE2">
+        <v>8.82</v>
+      </c>
+      <c r="EF2">
+        <v>8.1599484247888796</v>
+      </c>
+      <c r="EG2">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="EH2">
+        <v>7.8087306697812897</v>
+      </c>
+      <c r="EI2">
+        <v>7.12</v>
+      </c>
+      <c r="EJ2">
+        <v>2.2028059473236601</v>
+      </c>
+      <c r="EK2">
+        <v>13.7737307192795</v>
+      </c>
+      <c r="EL2">
+        <v>12.670723185801</v>
+      </c>
+      <c r="EM2">
+        <v>1.2350710438038801</v>
+      </c>
+      <c r="EN2">
+        <v>0.60312386883593205</v>
+      </c>
+      <c r="EO2">
+        <v>0.79321077169806398</v>
+      </c>
+      <c r="EP2">
+        <v>1.1182180633162599</v>
+      </c>
+      <c r="EQ2">
+        <v>0.87625958553091499</v>
+      </c>
+      <c r="ER2">
+        <v>0.87201808579278295</v>
+      </c>
+      <c r="ES2">
+        <v>1.4053819764192601</v>
+      </c>
+      <c r="ET2">
+        <v>0.55755876001664395</v>
+      </c>
+      <c r="EU2">
+        <v>0.58483771408519103</v>
+      </c>
+      <c r="EV2">
+        <v>0.51135364476741896</v>
+      </c>
+      <c r="EW2">
+        <v>1.5984533294122401</v>
+      </c>
+      <c r="EX2">
+        <v>2.21092116802201</v>
+      </c>
+      <c r="EY2">
+        <v>1.81738726323789</v>
+      </c>
+      <c r="EZ2">
+        <v>17.831645391571801</v>
+      </c>
+      <c r="FA2">
+        <v>1.46217254847454</v>
+      </c>
+      <c r="FB2">
+        <v>1.3392001248555701</v>
+      </c>
+      <c r="FC2">
+        <v>1.29700946879474</v>
+      </c>
+      <c r="FD2">
+        <v>1.27633985241304</v>
+      </c>
+      <c r="FE2">
+        <v>43.795012438778102</v>
+      </c>
+      <c r="FF2">
+        <v>0.543159911950576</v>
+      </c>
+      <c r="FG2">
+        <v>6.6645877432173597</v>
+      </c>
+      <c r="FH2">
+        <v>6.2529050066578398</v>
+      </c>
+      <c r="FI2">
+        <v>9.3945563501861198</v>
+      </c>
+      <c r="FJ2">
+        <v>1.50737946985834</v>
+      </c>
+      <c r="FK2">
+        <v>6.5631541641210598</v>
+      </c>
+      <c r="FL2">
+        <v>7.3367179128930102</v>
+      </c>
+      <c r="FM2">
+        <v>2.3236613283613399</v>
+      </c>
+      <c r="FN2">
+        <v>2.6369207595923001</v>
+      </c>
+      <c r="FO2">
+        <v>5.5307554376937098</v>
+      </c>
+      <c r="FP2">
+        <v>6.56429294377266</v>
+      </c>
+      <c r="FQ2">
+        <v>9.5537033566890202</v>
+      </c>
+      <c r="FR2">
+        <v>7.1625805529849096</v>
+      </c>
+      <c r="FS2">
+        <v>6.3471764381692104</v>
+      </c>
+      <c r="FT2">
+        <v>8.6468265160967004</v>
+      </c>
+      <c r="FU2">
+        <v>5.9671615489703598</v>
+      </c>
+      <c r="FV2">
+        <v>9.1374282504437296</v>
+      </c>
+      <c r="FW2">
+        <v>6.7006076888505302</v>
+      </c>
+      <c r="FX2">
+        <v>2.5204155676494802</v>
+      </c>
+      <c r="FY2">
+        <v>1.5497016386937701</v>
+      </c>
+      <c r="FZ2">
+        <v>5.6050969790409901</v>
+      </c>
+      <c r="GA2">
+        <v>0.54014239555545196</v>
+      </c>
+      <c r="GB2">
+        <v>1.0675518115974401</v>
+      </c>
+      <c r="GC2">
+        <v>0.66046749132328397</v>
+      </c>
+      <c r="GD2">
+        <v>2.0389858663838698</v>
+      </c>
+      <c r="GE2">
+        <v>0.62674994094553504</v>
+      </c>
+      <c r="GF2">
+        <v>2.0783424772146701</v>
+      </c>
+      <c r="GG2">
+        <v>0.70356494524080704</v>
+      </c>
+      <c r="GH2">
+        <v>2.1341441418985498</v>
+      </c>
+      <c r="GI2">
+        <v>1.07726110648051</v>
+      </c>
+      <c r="GJ2">
+        <v>1.4431523771003101</v>
+      </c>
+      <c r="GK2">
+        <v>1.4121399684340701</v>
+      </c>
+      <c r="GL2">
+        <v>0.63010318597055903</v>
+      </c>
+      <c r="GM2">
+        <v>0.74407646968955699</v>
+      </c>
+      <c r="GN2">
+        <v>1.59342055868655</v>
+      </c>
+      <c r="GO2">
+        <v>0.67698500410383899</v>
+      </c>
+      <c r="GP2">
+        <v>1.06186901937476</v>
+      </c>
+      <c r="GQ2">
+        <v>0.51104423424720402</v>
+      </c>
+      <c r="GR2">
+        <v>2.2262068517511802</v>
+      </c>
+      <c r="GS2">
+        <v>2.27442548515265</v>
+      </c>
+      <c r="GT2">
+        <v>1.5454656587639799</v>
+      </c>
+      <c r="GU2">
+        <v>2.31513294785218</v>
+      </c>
+      <c r="GV2">
+        <v>2.3593953046851399</v>
+      </c>
+      <c r="GW2">
+        <v>2.11488031032812</v>
+      </c>
+      <c r="GX2">
+        <v>0.51390426106238096</v>
+      </c>
+      <c r="GY2">
+        <v>1.53758124348673</v>
+      </c>
+      <c r="GZ2">
+        <v>1.0696809887549299</v>
+      </c>
+      <c r="HA2">
+        <v>0.78978974418244596</v>
+      </c>
+      <c r="HB2">
+        <v>1.2355662654385</v>
+      </c>
+      <c r="HC2">
+        <v>0.58155028310952706</v>
+      </c>
+      <c r="HD2">
+        <v>1.8818754762049299</v>
+      </c>
+      <c r="HE2">
+        <v>1.0158832554303101</v>
+      </c>
+      <c r="HF2">
+        <v>2.30083611432666</v>
+      </c>
+      <c r="HG2">
+        <v>1.78406329230857</v>
+      </c>
+      <c r="HH2">
+        <v>0.51012316769243704</v>
+      </c>
+      <c r="HI2">
+        <v>1.1507993963185299</v>
+      </c>
+      <c r="HJ2">
+        <v>1.03040473536345</v>
+      </c>
+      <c r="HK2">
+        <v>1.65380776925271</v>
+      </c>
+      <c r="HL2">
+        <v>2.3809171687058202</v>
+      </c>
+      <c r="HM2">
+        <v>2.4272399541784999</v>
+      </c>
+      <c r="HN2">
+        <v>2.3723095483215602</v>
+      </c>
+      <c r="HO2" s="1">
+        <v>36526</v>
       </c>
       <c r="HP2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="HQ2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="HR2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>283</v>
+        <v>301</v>
+      </c>
+      <c r="HS2">
+        <v>11.1</v>
       </c>
       <c r="HT2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="HU2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="HV2" t="s">
-        <v>299</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>286</v>
+        <v>301</v>
+      </c>
+      <c r="HW2">
+        <v>5.7</v>
       </c>
       <c r="HX2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="HY2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="HZ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>289</v>
+        <v>301</v>
+      </c>
+      <c r="IA2">
+        <v>4.5999999999999996</v>
       </c>
       <c r="IB2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="IC2" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="ID2" t="s">
-        <v>297</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>292</v>
+        <v>301</v>
+      </c>
+      <c r="IE2">
+        <v>4.2</v>
       </c>
       <c r="IF2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="IG2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="IH2" t="s">
-        <v>296</v>
-      </c>
-      <c r="II2" t="s">
-        <v>295</v>
+        <v>301</v>
+      </c>
+      <c r="II2">
+        <v>3.9</v>
       </c>
       <c r="IJ2" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="IK2" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="IL2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="IM2" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="IN2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="IO2" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="IP2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="IQ2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="IR2" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="IS2" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="IT2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="IU2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="IV2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="IW2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="IX2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="IY2" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:259" x14ac:dyDescent="0.25">
@@ -2669,28 +3178,28 @@
         <v>43</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="2">
+        <v>329158</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" s="2">
-        <v>67633</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
@@ -2699,430 +3208,388 @@
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P3" s="2">
-        <v>4781139.9638692401</v>
-      </c>
-      <c r="Q3">
-        <v>34.5</v>
-      </c>
-      <c r="R3">
-        <v>26</v>
-      </c>
-      <c r="S3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="T3">
-        <v>10.7</v>
-      </c>
-      <c r="U3">
-        <v>13.1</v>
-      </c>
-      <c r="V3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="W3">
-        <v>11.2</v>
-      </c>
-      <c r="X3">
-        <v>14.8</v>
-      </c>
-      <c r="Y3">
-        <v>6.9</v>
-      </c>
-      <c r="Z3">
-        <v>7.8</v>
-      </c>
-      <c r="AA3">
-        <v>5.4</v>
-      </c>
-      <c r="AB3">
-        <v>14.3</v>
-      </c>
-      <c r="AC3">
-        <v>3.5</v>
-      </c>
-      <c r="AD3">
-        <v>6.3</v>
-      </c>
-      <c r="AE3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AF3">
-        <v>4.3</v>
-      </c>
-      <c r="AG3">
-        <v>2.1</v>
-      </c>
-      <c r="AH3">
-        <v>2.8</v>
-      </c>
-      <c r="AI3">
-        <v>1.3</v>
-      </c>
-      <c r="AJ3">
-        <v>2.4</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>2</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
+        <v>3955826.5926509402</v>
+      </c>
+      <c r="AO3">
+        <v>45</v>
+      </c>
+      <c r="AP3">
+        <v>50</v>
+      </c>
+      <c r="AQ3">
+        <v>15</v>
+      </c>
+      <c r="AR3">
+        <v>20</v>
+      </c>
+      <c r="AS3">
+        <v>10</v>
+      </c>
+      <c r="AT3">
+        <v>5</v>
+      </c>
+      <c r="AU3">
+        <v>20</v>
+      </c>
+      <c r="AV3">
+        <v>15</v>
+      </c>
+      <c r="AW3">
+        <v>10</v>
+      </c>
+      <c r="AX3">
+        <v>10</v>
       </c>
       <c r="EA3">
-        <v>4.95</v>
+        <v>5.95</v>
       </c>
       <c r="EB3">
-        <v>9.1200427345405295</v>
+        <v>4.7039612548122802</v>
       </c>
       <c r="EC3">
-        <v>11.78</v>
+        <v>25.78</v>
       </c>
       <c r="ED3">
-        <v>4.2923300170262699</v>
+        <v>6.7266660845520798</v>
       </c>
       <c r="EE3">
-        <v>8.82</v>
+        <v>8.02</v>
       </c>
       <c r="EF3">
-        <v>8.1599484247888796</v>
+        <v>3.7265682199747401</v>
       </c>
       <c r="EG3">
-        <v>9.6199999999999992</v>
+        <v>11.62</v>
       </c>
       <c r="EH3">
-        <v>7.8087306697812897</v>
+        <v>9.8068166357002706</v>
       </c>
       <c r="EI3">
-        <v>7.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="EJ3">
-        <v>2.2028059473236601</v>
+        <v>9.7011873174234005</v>
       </c>
       <c r="EK3">
-        <v>13.7737307192795</v>
+        <v>12.407686177542001</v>
       </c>
       <c r="EL3">
-        <v>12.670723185801</v>
+        <v>13.1324055255647</v>
       </c>
       <c r="EM3">
-        <v>1.2350710438038801</v>
+        <v>1.30348093038484</v>
       </c>
       <c r="EN3">
-        <v>0.60312386883593205</v>
+        <v>1.4025529066795599</v>
       </c>
       <c r="EO3">
-        <v>0.79321077169806398</v>
+        <v>0.82866454536991596</v>
       </c>
       <c r="EP3">
-        <v>1.1182180633162599</v>
+        <v>0.60112267612279002</v>
       </c>
       <c r="EQ3">
-        <v>0.87625958553091499</v>
+        <v>0.58350071669866799</v>
       </c>
       <c r="ER3">
-        <v>0.87201808579278295</v>
+        <v>1.2764129607419901</v>
       </c>
       <c r="ES3">
-        <v>1.4053819764192601</v>
+        <v>0.591286676786133</v>
       </c>
       <c r="ET3">
-        <v>0.55755876001664395</v>
+        <v>1.0495288823237301</v>
       </c>
       <c r="EU3">
-        <v>0.58483771408519103</v>
+        <v>1.4866395785011699</v>
       </c>
       <c r="EV3">
-        <v>0.51135364476741896</v>
+        <v>0.96866064199412605</v>
       </c>
       <c r="EW3">
-        <v>1.5984533294122401</v>
+        <v>1.92919184540012</v>
       </c>
       <c r="EX3">
-        <v>2.21092116802201</v>
+        <v>1.90731571876004</v>
       </c>
       <c r="EY3">
-        <v>1.81738726323789</v>
+        <v>0.82586885416285905</v>
       </c>
       <c r="EZ3">
-        <v>17.831645391571801</v>
+        <v>12.7744520350066</v>
       </c>
       <c r="FA3">
-        <v>1.46217254847454</v>
+        <v>0.87487057952370395</v>
       </c>
       <c r="FB3">
-        <v>1.3392001248555701</v>
+        <v>0.99546197900231403</v>
       </c>
       <c r="FC3">
-        <v>1.29700946879474</v>
+        <v>1.73170019610443</v>
       </c>
       <c r="FD3">
-        <v>1.27633985241304</v>
+        <v>1.7865764368846999</v>
       </c>
       <c r="FE3">
-        <v>43.795012438778102</v>
+        <v>10.930877429433</v>
       </c>
       <c r="FF3">
-        <v>0.543159911950576</v>
+        <v>1.3911431136980701</v>
       </c>
       <c r="FG3">
-        <v>6.6645877432173597</v>
+        <v>7.2617382008615499</v>
       </c>
       <c r="FH3">
-        <v>6.2529050066578398</v>
+        <v>1.6996117326848601</v>
       </c>
       <c r="FI3">
-        <v>9.3945563501861198</v>
+        <v>8.7945750055036704</v>
       </c>
       <c r="FJ3">
-        <v>1.50737946985834</v>
+        <v>8.7825013862954702</v>
       </c>
       <c r="FK3">
-        <v>6.5631541641210598</v>
+        <v>4.2234644622955599</v>
       </c>
       <c r="FL3">
-        <v>7.3367179128930102</v>
+        <v>2.9166774535801898</v>
       </c>
       <c r="FM3">
-        <v>2.3236613283613399</v>
+        <v>9.33928862645344</v>
       </c>
       <c r="FN3">
-        <v>2.6369207595923001</v>
+        <v>4.1110055499147604</v>
       </c>
       <c r="FO3">
-        <v>5.5307554376937098</v>
+        <v>7.2135534576642799</v>
       </c>
       <c r="FP3">
-        <v>6.56429294377266</v>
+        <v>4.3202227561279498</v>
       </c>
       <c r="FQ3">
-        <v>9.5537033566890202</v>
+        <v>9.0123740550182401</v>
       </c>
       <c r="FR3">
-        <v>7.1625805529849096</v>
+        <v>2.4635524541040201</v>
       </c>
       <c r="FS3">
-        <v>6.3471764381692104</v>
+        <v>4.4280177096791897</v>
       </c>
       <c r="FT3">
-        <v>8.6468265160967004</v>
+        <v>3.2261329156887699</v>
       </c>
       <c r="FU3">
-        <v>5.9671615489703598</v>
+        <v>6.0484417438184703</v>
       </c>
       <c r="FV3">
-        <v>9.1374282504437296</v>
+        <v>4.1342992032097001</v>
       </c>
       <c r="FW3">
-        <v>6.7006076888505302</v>
+        <v>3.1613105690037302</v>
       </c>
       <c r="FX3">
-        <v>2.5204155676494802</v>
+        <v>3.5073130512876198</v>
       </c>
       <c r="FY3">
-        <v>1.5497016386937701</v>
+        <v>3.49189883332483</v>
       </c>
       <c r="FZ3">
-        <v>5.6050969790409901</v>
+        <v>5.7890213673878401</v>
       </c>
       <c r="GA3">
-        <v>0.54014239555545196</v>
+        <v>1.1441583311663499</v>
       </c>
       <c r="GB3">
-        <v>1.0675518115974401</v>
+        <v>1.22616459279727</v>
       </c>
       <c r="GC3">
-        <v>0.66046749132328397</v>
+        <v>1.5490227791405</v>
       </c>
       <c r="GD3">
-        <v>2.0389858663838698</v>
+        <v>0.87408749711504596</v>
       </c>
       <c r="GE3">
-        <v>0.62674994094553504</v>
+        <v>2.47992046477989</v>
       </c>
       <c r="GF3">
-        <v>2.0783424772146701</v>
+        <v>1.4968843978581099</v>
       </c>
       <c r="GG3">
-        <v>0.70356494524080704</v>
+        <v>0.80571827836866405</v>
       </c>
       <c r="GH3">
-        <v>2.1341441418985498</v>
+        <v>1.0158056540898699</v>
       </c>
       <c r="GI3">
-        <v>1.07726110648051</v>
+        <v>1.6624764428452199</v>
       </c>
       <c r="GJ3">
-        <v>1.4431523771003101</v>
+        <v>1.32368182829453</v>
       </c>
       <c r="GK3">
-        <v>1.4121399684340701</v>
+        <v>2.0703519227860201</v>
       </c>
       <c r="GL3">
-        <v>0.63010318597055903</v>
+        <v>2.39777107450666</v>
       </c>
       <c r="GM3">
-        <v>0.74407646968955699</v>
+        <v>1.4903538202225399</v>
       </c>
       <c r="GN3">
-        <v>1.59342055868655</v>
+        <v>0.86970891105105397</v>
       </c>
       <c r="GO3">
-        <v>0.67698500410383899</v>
+        <v>0.89196572483828995</v>
       </c>
       <c r="GP3">
-        <v>1.06186901937476</v>
+        <v>1.58539216631649</v>
       </c>
       <c r="GQ3">
-        <v>0.51104423424720402</v>
+        <v>2.1309228569096601</v>
       </c>
       <c r="GR3">
-        <v>2.2262068517511802</v>
+        <v>1.7465962536551101</v>
       </c>
       <c r="GS3">
-        <v>2.27442548515265</v>
+        <v>1.4444298503238899</v>
       </c>
       <c r="GT3">
-        <v>1.5454656587639799</v>
+        <v>1.3550820367170899</v>
       </c>
       <c r="GU3">
-        <v>2.31513294785218</v>
+        <v>0.998584458297749</v>
       </c>
       <c r="GV3">
-        <v>2.3593953046851399</v>
+        <v>2.1162407591288299</v>
       </c>
       <c r="GW3">
-        <v>2.11488031032812</v>
+        <v>2.29218259984698</v>
       </c>
       <c r="GX3">
-        <v>0.51390426106238096</v>
+        <v>1.5214946051551299</v>
       </c>
       <c r="GY3">
-        <v>1.53758124348673</v>
+        <v>1.9060379177903499</v>
       </c>
       <c r="GZ3">
-        <v>1.0696809887549299</v>
+        <v>0.57377389470906504</v>
       </c>
       <c r="HA3">
-        <v>0.78978974418244596</v>
+        <v>1.47890552055512</v>
       </c>
       <c r="HB3">
-        <v>1.2355662654385</v>
+        <v>1.7646116611871501</v>
       </c>
       <c r="HC3">
-        <v>0.58155028310952706</v>
+        <v>1.6817858863764801</v>
       </c>
       <c r="HD3">
-        <v>1.8818754762049299</v>
+        <v>1.2734706926010699</v>
       </c>
       <c r="HE3">
-        <v>1.0158832554303101</v>
+        <v>1.8199680920683501</v>
       </c>
       <c r="HF3">
-        <v>2.30083611432666</v>
+        <v>1.7662029145465299</v>
       </c>
       <c r="HG3">
-        <v>1.78406329230857</v>
+        <v>0.668279929990097</v>
       </c>
       <c r="HH3">
-        <v>0.51012316769243704</v>
+        <v>0.82161610283499698</v>
       </c>
       <c r="HI3">
-        <v>1.1507993963185299</v>
+        <v>1.9929828102360401</v>
       </c>
       <c r="HJ3">
-        <v>1.03040473536345</v>
+        <v>0.98797928675816704</v>
       </c>
       <c r="HK3">
-        <v>1.65380776925271</v>
+        <v>1.48503538763772</v>
       </c>
       <c r="HL3">
-        <v>2.3809171687058202</v>
+        <v>2.4078571540051699</v>
       </c>
       <c r="HM3">
-        <v>2.4272399541784999</v>
+        <v>2.2060189109347199</v>
       </c>
       <c r="HN3">
-        <v>2.3723095483215602</v>
+        <v>1.89205959334994</v>
       </c>
       <c r="HO3" s="1">
-        <v>36526</v>
+        <v>37569</v>
       </c>
       <c r="HP3" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="HQ3" t="s">
-        <v>279</v>
+        <v>4</v>
       </c>
       <c r="HR3" t="s">
         <v>301</v>
       </c>
       <c r="HS3">
-        <v>11.1</v>
+        <v>15</v>
       </c>
       <c r="HT3" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="HU3" t="s">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="HV3" t="s">
         <v>301</v>
       </c>
       <c r="HW3">
-        <v>5.7</v>
+        <v>12</v>
       </c>
       <c r="HX3" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="HY3" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
       <c r="HZ3" t="s">
         <v>301</v>
       </c>
       <c r="IA3">
-        <v>4.5999999999999996</v>
+        <v>10</v>
       </c>
       <c r="IB3" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="IC3" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
       <c r="ID3" t="s">
         <v>301</v>
       </c>
       <c r="IE3">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="IF3" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="IG3" t="s">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="IH3" t="s">
         <v>301</v>
       </c>
       <c r="II3">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="IJ3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="IK3" t="s">
         <v>376</v>
@@ -3131,10 +3598,10 @@
         <v>377</v>
       </c>
       <c r="IM3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="IN3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="IO3" t="s">
         <v>376</v>
@@ -3143,7 +3610,7 @@
         <v>377</v>
       </c>
       <c r="IQ3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="IR3" t="s">
         <v>381</v>
@@ -3178,418 +3645,418 @@
         <v>43</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="2">
+        <v>392676</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>310</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1645493.78916526</v>
+      </c>
+      <c r="AY4">
+        <v>40</v>
+      </c>
+      <c r="AZ4">
+        <v>45</v>
+      </c>
+      <c r="BA4">
+        <v>35</v>
+      </c>
+      <c r="BB4">
+        <v>40</v>
+      </c>
+      <c r="BC4">
+        <v>15</v>
+      </c>
+      <c r="BD4">
+        <v>10</v>
+      </c>
+      <c r="BE4">
+        <v>5</v>
+      </c>
+      <c r="BF4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="BG4">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="2">
-        <v>329158</v>
-      </c>
-      <c r="I4">
+      <c r="BH4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>309</v>
-      </c>
-      <c r="P4" s="2">
-        <v>3955826.5926509402</v>
-      </c>
-      <c r="AO4">
-        <v>45</v>
-      </c>
-      <c r="AP4">
-        <v>50</v>
-      </c>
-      <c r="AQ4">
-        <v>15</v>
-      </c>
-      <c r="AR4">
-        <v>20</v>
-      </c>
-      <c r="AS4">
-        <v>10</v>
-      </c>
-      <c r="AT4">
-        <v>5</v>
-      </c>
-      <c r="AU4">
-        <v>20</v>
-      </c>
-      <c r="AV4">
-        <v>15</v>
-      </c>
-      <c r="AW4">
-        <v>10</v>
-      </c>
-      <c r="AX4">
-        <v>10</v>
-      </c>
       <c r="EA4">
-        <v>5.95</v>
+        <v>1.95</v>
       </c>
       <c r="EB4">
-        <v>4.7039612548122802</v>
+        <v>5.0046636211195503</v>
       </c>
       <c r="EC4">
-        <v>25.78</v>
+        <v>3.78</v>
       </c>
       <c r="ED4">
-        <v>6.7266660845520798</v>
+        <v>2.2440019995123901</v>
       </c>
       <c r="EE4">
-        <v>8.02</v>
+        <v>2.82</v>
       </c>
       <c r="EF4">
-        <v>3.7265682199747401</v>
+        <v>6.9831238065520003</v>
       </c>
       <c r="EG4">
-        <v>11.62</v>
+        <v>3.62</v>
       </c>
       <c r="EH4">
-        <v>9.8068166357002706</v>
+        <v>6.1304027864095598</v>
       </c>
       <c r="EI4">
-        <v>10.119999999999999</v>
+        <v>2.12</v>
       </c>
       <c r="EJ4">
-        <v>9.7011873174234005</v>
+        <v>8.6878409640976404</v>
       </c>
       <c r="EK4">
-        <v>12.407686177542001</v>
+        <v>11.9701574099526</v>
       </c>
       <c r="EL4">
-        <v>13.1324055255647</v>
+        <v>9.1134239886093695</v>
       </c>
       <c r="EM4">
-        <v>1.30348093038484</v>
+        <v>0.78203457257130604</v>
       </c>
       <c r="EN4">
-        <v>1.4025529066795599</v>
+        <v>1.0052523724478499</v>
       </c>
       <c r="EO4">
-        <v>0.82866454536991596</v>
+        <v>1.1725184560770301</v>
       </c>
       <c r="EP4">
-        <v>0.60112267612279002</v>
+        <v>0.58410680611499699</v>
       </c>
       <c r="EQ4">
-        <v>0.58350071669866799</v>
+        <v>1.27714691592743</v>
       </c>
       <c r="ER4">
-        <v>1.2764129607419901</v>
+        <v>0.84080354025301696</v>
       </c>
       <c r="ES4">
-        <v>0.591286676786133</v>
+        <v>0.81931363759041398</v>
       </c>
       <c r="ET4">
-        <v>1.0495288823237301</v>
+        <v>0.94153050137337702</v>
       </c>
       <c r="EU4">
-        <v>1.4866395785011699</v>
+        <v>0.87427079575611999</v>
       </c>
       <c r="EV4">
-        <v>0.96866064199412605</v>
+        <v>0.55630327568183702</v>
       </c>
       <c r="EW4">
-        <v>1.92919184540012</v>
+        <v>1.8203947534354601</v>
       </c>
       <c r="EX4">
-        <v>1.90731571876004</v>
+        <v>1.4483476581746499</v>
       </c>
       <c r="EY4">
-        <v>0.82586885416285905</v>
+        <v>0.64113749480085902</v>
       </c>
       <c r="EZ4">
-        <v>12.7744520350066</v>
+        <v>14.031120055097</v>
       </c>
       <c r="FA4">
-        <v>0.87487057952370395</v>
+        <v>0.78571208628185996</v>
       </c>
       <c r="FB4">
-        <v>0.99546197900231403</v>
+        <v>1.2119453573025201</v>
       </c>
       <c r="FC4">
-        <v>1.73170019610443</v>
+        <v>1.77018730173528</v>
       </c>
       <c r="FD4">
-        <v>1.7865764368846999</v>
+        <v>1.4165057809830299</v>
       </c>
       <c r="FE4">
-        <v>10.930877429433</v>
+        <v>42.578739303557398</v>
       </c>
       <c r="FF4">
-        <v>1.3911431136980701</v>
+        <v>1.0277011090863</v>
       </c>
       <c r="FG4">
-        <v>7.2617382008615499</v>
+        <v>5.0908695829099502</v>
       </c>
       <c r="FH4">
-        <v>1.6996117326848601</v>
+        <v>9.7695532689954891</v>
       </c>
       <c r="FI4">
-        <v>8.7945750055036704</v>
+        <v>1.4069680309557</v>
       </c>
       <c r="FJ4">
-        <v>8.7825013862954702</v>
+        <v>8.3161090821706907</v>
       </c>
       <c r="FK4">
-        <v>4.2234644622955599</v>
+        <v>2.0220183297966599</v>
       </c>
       <c r="FL4">
-        <v>2.9166774535801898</v>
+        <v>2.2273432802809201</v>
       </c>
       <c r="FM4">
-        <v>9.33928862645344</v>
+        <v>5.4290466377158397</v>
       </c>
       <c r="FN4">
-        <v>4.1110055499147604</v>
+        <v>9.0710956891541006</v>
       </c>
       <c r="FO4">
-        <v>7.2135534576642799</v>
+        <v>1.35380925856989</v>
       </c>
       <c r="FP4">
-        <v>4.3202227561279498</v>
+        <v>5.1628124451983304</v>
       </c>
       <c r="FQ4">
-        <v>9.0123740550182401</v>
+        <v>5.1009107750714104</v>
       </c>
       <c r="FR4">
-        <v>2.4635524541040201</v>
+        <v>9.1983446604445795</v>
       </c>
       <c r="FS4">
-        <v>4.4280177096791897</v>
+        <v>9.7292295803314293</v>
       </c>
       <c r="FT4">
-        <v>3.2261329156887699</v>
+        <v>5.05489721779084</v>
       </c>
       <c r="FU4">
-        <v>6.0484417438184703</v>
+        <v>8.8898824239250995</v>
       </c>
       <c r="FV4">
-        <v>4.1342992032097001</v>
+        <v>5.6259054024382902</v>
       </c>
       <c r="FW4">
-        <v>3.1613105690037302</v>
+        <v>1.6827699529779701</v>
       </c>
       <c r="FX4">
-        <v>3.5073130512876198</v>
+        <v>2.59309435849072</v>
       </c>
       <c r="FY4">
-        <v>3.49189883332483</v>
+        <v>8.2558115181375502</v>
       </c>
       <c r="FZ4">
-        <v>5.7890213673878401</v>
+        <v>1.96454810205798</v>
       </c>
       <c r="GA4">
-        <v>1.1441583311663499</v>
+        <v>0.92289601399308896</v>
       </c>
       <c r="GB4">
-        <v>1.22616459279727</v>
+        <v>1.7918344826632</v>
       </c>
       <c r="GC4">
-        <v>1.5490227791405</v>
+        <v>1.3207936539793199</v>
       </c>
       <c r="GD4">
-        <v>0.87408749711504596</v>
+        <v>1.14735847280848</v>
       </c>
       <c r="GE4">
-        <v>2.47992046477989</v>
+        <v>1.1447076899494399</v>
       </c>
       <c r="GF4">
-        <v>1.4968843978581099</v>
+        <v>0.67384057617484705</v>
       </c>
       <c r="GG4">
-        <v>0.80571827836866405</v>
+        <v>0.99191545676901605</v>
       </c>
       <c r="GH4">
-        <v>1.0158056540898699</v>
+        <v>0.84177517478013097</v>
       </c>
       <c r="GI4">
-        <v>1.6624764428452199</v>
+        <v>0.80872543054840396</v>
       </c>
       <c r="GJ4">
-        <v>1.32368182829453</v>
+        <v>1.1977365330859899</v>
       </c>
       <c r="GK4">
-        <v>2.0703519227860201</v>
+        <v>0.89934756431671903</v>
       </c>
       <c r="GL4">
-        <v>2.39777107450666</v>
+        <v>2.4312640661491098</v>
       </c>
       <c r="GM4">
-        <v>1.4903538202225399</v>
+        <v>0.56877704223043601</v>
       </c>
       <c r="GN4">
-        <v>0.86970891105105397</v>
+        <v>2.43916925552911</v>
       </c>
       <c r="GO4">
-        <v>0.89196572483828995</v>
+        <v>0.59045457782107602</v>
       </c>
       <c r="GP4">
-        <v>1.58539216631649</v>
+        <v>0.78184844994952496</v>
       </c>
       <c r="GQ4">
-        <v>2.1309228569096601</v>
+        <v>1.91371468769523</v>
       </c>
       <c r="GR4">
-        <v>1.7465962536551101</v>
+        <v>1.1617960497052899</v>
       </c>
       <c r="GS4">
-        <v>1.4444298503238899</v>
+        <v>0.73918849187660296</v>
       </c>
       <c r="GT4">
-        <v>1.3550820367170899</v>
+        <v>0.55083825348819004</v>
       </c>
       <c r="GU4">
-        <v>0.998584458297749</v>
+        <v>1.3207658460712499</v>
       </c>
       <c r="GV4">
-        <v>2.1162407591288299</v>
+        <v>1.76680751302084</v>
       </c>
       <c r="GW4">
-        <v>2.29218259984698</v>
+        <v>1.13600694994372</v>
       </c>
       <c r="GX4">
-        <v>1.5214946051551299</v>
+        <v>1.33482200629755</v>
       </c>
       <c r="GY4">
-        <v>1.9060379177903499</v>
+        <v>1.22725920475858</v>
       </c>
       <c r="GZ4">
-        <v>0.57377389470906504</v>
+        <v>1.7191286679597899</v>
       </c>
       <c r="HA4">
-        <v>1.47890552055512</v>
+        <v>2.4713009082211999</v>
       </c>
       <c r="HB4">
-        <v>1.7646116611871501</v>
+        <v>1.7670594215217801</v>
       </c>
       <c r="HC4">
-        <v>1.6817858863764801</v>
+        <v>1.8551287236845599</v>
       </c>
       <c r="HD4">
-        <v>1.2734706926010699</v>
+        <v>2.3734599774734599</v>
       </c>
       <c r="HE4">
-        <v>1.8199680920683501</v>
+        <v>2.1344444004024301</v>
       </c>
       <c r="HF4">
-        <v>1.7662029145465299</v>
+        <v>1.1780595820974</v>
       </c>
       <c r="HG4">
-        <v>0.668279929990097</v>
+        <v>0.82325742818922698</v>
       </c>
       <c r="HH4">
-        <v>0.82161610283499698</v>
+        <v>1.59746757873317</v>
       </c>
       <c r="HI4">
-        <v>1.9929828102360401</v>
+        <v>1.79926579809442</v>
       </c>
       <c r="HJ4">
-        <v>0.98797928675816704</v>
+        <v>2.44602110950489</v>
       </c>
       <c r="HK4">
-        <v>1.48503538763772</v>
+        <v>0.890485975596089</v>
       </c>
       <c r="HL4">
-        <v>2.4078571540051699</v>
+        <v>2.3297287804408899</v>
       </c>
       <c r="HM4">
-        <v>2.2060189109347199</v>
+        <v>1.08889778413917</v>
       </c>
       <c r="HN4">
-        <v>1.89205959334994</v>
+        <v>1.6401223401787299</v>
       </c>
       <c r="HO4" s="1">
-        <v>37569</v>
+        <v>38613</v>
       </c>
       <c r="HP4" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="HQ4" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="HR4" t="s">
         <v>301</v>
       </c>
       <c r="HS4">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="HT4" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="HU4" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="HV4" t="s">
         <v>301</v>
       </c>
       <c r="HW4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="HX4" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="HY4" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="HZ4" t="s">
         <v>301</v>
       </c>
       <c r="IA4">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="IB4" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="IC4" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="ID4" t="s">
         <v>301</v>
       </c>
       <c r="IE4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="IF4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="IG4" t="s">
-        <v>4</v>
+        <v>322</v>
       </c>
       <c r="IH4" t="s">
         <v>301</v>
       </c>
       <c r="II4">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="IJ4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="IK4" t="s">
         <v>376</v>
@@ -3598,10 +4065,10 @@
         <v>377</v>
       </c>
       <c r="IM4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="IN4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="IO4" t="s">
         <v>376</v>
@@ -3610,7 +4077,7 @@
         <v>377</v>
       </c>
       <c r="IQ4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="IR4" t="s">
         <v>381</v>
@@ -3645,382 +4112,406 @@
         <v>43</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H5" s="2">
-        <v>392676</v>
+        <v>99104</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P5" s="2">
-        <v>1645493.78916526</v>
-      </c>
-      <c r="AY5">
-        <v>40</v>
-      </c>
-      <c r="AZ5">
-        <v>45</v>
-      </c>
-      <c r="BA5">
-        <v>35</v>
-      </c>
-      <c r="BB5">
-        <v>40</v>
-      </c>
-      <c r="BC5">
+        <v>3471860.0598240499</v>
+      </c>
+      <c r="BI5">
+        <v>20</v>
+      </c>
+      <c r="BJ5">
+        <v>18</v>
+      </c>
+      <c r="BK5">
         <v>15</v>
       </c>
-      <c r="BD5">
+      <c r="BL5">
+        <v>17</v>
+      </c>
+      <c r="BM5">
+        <v>14</v>
+      </c>
+      <c r="BN5">
+        <v>12</v>
+      </c>
+      <c r="BO5">
+        <v>12</v>
+      </c>
+      <c r="BP5">
         <v>10</v>
       </c>
-      <c r="BE5">
+      <c r="BQ5">
+        <v>10</v>
+      </c>
+      <c r="BR5">
+        <v>15</v>
+      </c>
+      <c r="BS5">
+        <v>9</v>
+      </c>
+      <c r="BT5">
+        <v>10</v>
+      </c>
+      <c r="BU5">
+        <v>8</v>
+      </c>
+      <c r="BV5">
+        <v>8</v>
+      </c>
+      <c r="BW5">
+        <v>7</v>
+      </c>
+      <c r="BX5">
+        <v>6</v>
+      </c>
+      <c r="BY5">
         <v>5</v>
       </c>
-      <c r="BF5">
-        <v>3</v>
-      </c>
-      <c r="BG5">
-        <v>5</v>
-      </c>
-      <c r="BH5">
-        <v>2</v>
+      <c r="BZ5">
+        <v>4</v>
       </c>
       <c r="EA5">
-        <v>1.95</v>
+        <v>3.95</v>
       </c>
       <c r="EB5">
-        <v>5.0046636211195503</v>
+        <v>2.7518555187269498</v>
       </c>
       <c r="EC5">
-        <v>3.78</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="ED5">
-        <v>2.2440019995123901</v>
+        <v>2.29878550999371</v>
       </c>
       <c r="EE5">
-        <v>2.82</v>
+        <v>6.82</v>
       </c>
       <c r="EF5">
-        <v>6.9831238065520003</v>
+        <v>2.68277971995014</v>
       </c>
       <c r="EG5">
-        <v>3.62</v>
+        <v>7.62</v>
       </c>
       <c r="EH5">
-        <v>6.1304027864095598</v>
+        <v>4.5836517835299597</v>
       </c>
       <c r="EI5">
-        <v>2.12</v>
+        <v>5.12</v>
       </c>
       <c r="EJ5">
-        <v>8.6878409640976404</v>
+        <v>7.5677936487495803</v>
       </c>
       <c r="EK5">
-        <v>11.9701574099526</v>
+        <v>12.024840839871</v>
       </c>
       <c r="EL5">
-        <v>9.1134239886093695</v>
+        <v>9.0151629468719907</v>
       </c>
       <c r="EM5">
-        <v>0.78203457257130604</v>
+        <v>0.67743954377972204</v>
       </c>
       <c r="EN5">
-        <v>1.0052523724478499</v>
+        <v>1.32645746610774</v>
       </c>
       <c r="EO5">
-        <v>1.1725184560770301</v>
+        <v>1.25237452943768</v>
       </c>
       <c r="EP5">
-        <v>0.58410680611499699</v>
+        <v>1.20096913145912</v>
       </c>
       <c r="EQ5">
-        <v>1.27714691592743</v>
+        <v>1.0584042497357999</v>
       </c>
       <c r="ER5">
-        <v>0.84080354025301696</v>
+        <v>1.4307573256035599</v>
       </c>
       <c r="ES5">
-        <v>0.81931363759041398</v>
+        <v>1.4500619670507999</v>
       </c>
       <c r="ET5">
-        <v>0.94153050137337702</v>
+        <v>1.3877041827582901</v>
       </c>
       <c r="EU5">
-        <v>0.87427079575611999</v>
+        <v>0.87064214706689003</v>
       </c>
       <c r="EV5">
-        <v>0.55630327568183702</v>
+        <v>0.61881791626807103</v>
       </c>
       <c r="EW5">
-        <v>1.8203947534354601</v>
+        <v>1.0598677938918799</v>
       </c>
       <c r="EX5">
-        <v>1.4483476581746499</v>
+        <v>0.69566832130200296</v>
       </c>
       <c r="EY5">
-        <v>0.64113749480085902</v>
+        <v>1.7848385564126299</v>
       </c>
       <c r="EZ5">
-        <v>14.031120055097</v>
+        <v>10.728873026061899</v>
       </c>
       <c r="FA5">
-        <v>0.78571208628185996</v>
+        <v>1.3685991281894601</v>
       </c>
       <c r="FB5">
-        <v>1.2119453573025201</v>
+        <v>2.01569222092873</v>
       </c>
       <c r="FC5">
-        <v>1.77018730173528</v>
+        <v>0.59060801954408904</v>
       </c>
       <c r="FD5">
-        <v>1.4165057809830299</v>
+        <v>1.5912335786318601</v>
       </c>
       <c r="FE5">
-        <v>42.578739303557398</v>
+        <v>21.274190990935999</v>
       </c>
       <c r="FF5">
-        <v>1.0277011090863</v>
+        <v>1.4929647961193</v>
       </c>
       <c r="FG5">
-        <v>5.0908695829099502</v>
+        <v>6.6480227207565701</v>
       </c>
       <c r="FH5">
-        <v>9.7695532689954891</v>
+        <v>9.8758967003164209</v>
       </c>
       <c r="FI5">
-        <v>1.4069680309557</v>
+        <v>1.2373027704752599</v>
       </c>
       <c r="FJ5">
-        <v>8.3161090821706907</v>
+        <v>9.9974590595751707</v>
       </c>
       <c r="FK5">
-        <v>2.0220183297966599</v>
+        <v>7.0441587603351898</v>
       </c>
       <c r="FL5">
-        <v>2.2273432802809201</v>
+        <v>1.1309019910109299</v>
       </c>
       <c r="FM5">
-        <v>5.4290466377158397</v>
+        <v>3.3241994946906201</v>
       </c>
       <c r="FN5">
-        <v>9.0710956891541006</v>
+        <v>5.2656547623658501</v>
       </c>
       <c r="FO5">
-        <v>1.35380925856989</v>
+        <v>8.1946935901813802</v>
       </c>
       <c r="FP5">
-        <v>5.1628124451983304</v>
+        <v>7.7272384432037997</v>
       </c>
       <c r="FQ5">
-        <v>5.1009107750714104</v>
+        <v>6.58119338021383</v>
       </c>
       <c r="FR5">
-        <v>9.1983446604445795</v>
+        <v>8.4028351863085202</v>
       </c>
       <c r="FS5">
-        <v>9.7292295803314293</v>
+        <v>8.57907030822137</v>
       </c>
       <c r="FT5">
-        <v>5.05489721779084</v>
+        <v>2.16243473636345</v>
       </c>
       <c r="FU5">
-        <v>8.8898824239250995</v>
+        <v>4.63134579591157</v>
       </c>
       <c r="FV5">
-        <v>5.6259054024382902</v>
+        <v>8.0528771146702791</v>
       </c>
       <c r="FW5">
-        <v>1.6827699529779701</v>
+        <v>2.1599174971958401</v>
       </c>
       <c r="FX5">
-        <v>2.59309435849072</v>
+        <v>1.7983228038135</v>
       </c>
       <c r="FY5">
-        <v>8.2558115181375502</v>
+        <v>7.7343372134529202</v>
       </c>
       <c r="FZ5">
-        <v>1.96454810205798</v>
+        <v>5.0267113014110896</v>
       </c>
       <c r="GA5">
-        <v>0.92289601399308896</v>
+        <v>1.15499470435582</v>
       </c>
       <c r="GB5">
-        <v>1.7918344826632</v>
+        <v>1.64155660933782</v>
       </c>
       <c r="GC5">
-        <v>1.3207936539793199</v>
+        <v>2.4647572338172101</v>
       </c>
       <c r="GD5">
-        <v>1.14735847280848</v>
+        <v>1.35087287723283</v>
       </c>
       <c r="GE5">
-        <v>1.1447076899494399</v>
+        <v>2.1197488917092602</v>
       </c>
       <c r="GF5">
-        <v>0.67384057617484705</v>
+        <v>1.57421308363709</v>
       </c>
       <c r="GG5">
-        <v>0.99191545676901605</v>
+        <v>0.82136274651911101</v>
       </c>
       <c r="GH5">
-        <v>0.84177517478013097</v>
+        <v>1.83728643984886</v>
       </c>
       <c r="GI5">
-        <v>0.80872543054840396</v>
+        <v>1.4622802037096301</v>
       </c>
       <c r="GJ5">
-        <v>1.1977365330859899</v>
+        <v>2.3590582884956501</v>
       </c>
       <c r="GK5">
-        <v>0.89934756431671903</v>
+        <v>1.5284688768272201</v>
       </c>
       <c r="GL5">
-        <v>2.4312640661491098</v>
+        <v>2.1167946962329198</v>
       </c>
       <c r="GM5">
-        <v>0.56877704223043601</v>
+        <v>2.3186408041575599</v>
       </c>
       <c r="GN5">
-        <v>2.43916925552911</v>
+        <v>2.0502656467222198</v>
       </c>
       <c r="GO5">
-        <v>0.59045457782107602</v>
+        <v>1.15066066152652</v>
       </c>
       <c r="GP5">
-        <v>0.78184844994952496</v>
+        <v>2.10439396150807</v>
       </c>
       <c r="GQ5">
-        <v>1.91371468769523</v>
+        <v>1.95801433608197</v>
       </c>
       <c r="GR5">
-        <v>1.1617960497052899</v>
+        <v>0.62711670057204705</v>
       </c>
       <c r="GS5">
-        <v>0.73918849187660296</v>
+        <v>1.92648957444599</v>
       </c>
       <c r="GT5">
-        <v>0.55083825348819004</v>
+        <v>0.71578285398660801</v>
       </c>
       <c r="GU5">
-        <v>1.3207658460712499</v>
+        <v>2.0111022770860898</v>
       </c>
       <c r="GV5">
-        <v>1.76680751302084</v>
+        <v>2.2429211803754301</v>
       </c>
       <c r="GW5">
-        <v>1.13600694994372</v>
+        <v>0.72010384905535296</v>
       </c>
       <c r="GX5">
-        <v>1.33482200629755</v>
+        <v>0.94421562094146005</v>
       </c>
       <c r="GY5">
-        <v>1.22725920475858</v>
+        <v>2.44356416544192</v>
       </c>
       <c r="GZ5">
-        <v>1.7191286679597899</v>
+        <v>1.5053580464577201</v>
       </c>
       <c r="HA5">
-        <v>2.4713009082211999</v>
+        <v>0.98411054302300005</v>
       </c>
       <c r="HB5">
-        <v>1.7670594215217801</v>
+        <v>1.5715493681495101</v>
       </c>
       <c r="HC5">
-        <v>1.8551287236845599</v>
+        <v>0.53317565785571197</v>
       </c>
       <c r="HD5">
-        <v>2.3734599774734599</v>
+        <v>0.77504188829198595</v>
       </c>
       <c r="HE5">
-        <v>2.1344444004024301</v>
+        <v>1.61040162319892</v>
       </c>
       <c r="HF5">
-        <v>1.1780595820974</v>
+        <v>1.19841914922532</v>
       </c>
       <c r="HG5">
-        <v>0.82325742818922698</v>
+        <v>2.2971083770541498</v>
       </c>
       <c r="HH5">
-        <v>1.59746757873317</v>
+        <v>1.8837903953853801</v>
       </c>
       <c r="HI5">
-        <v>1.79926579809442</v>
+        <v>2.1984468209883499</v>
       </c>
       <c r="HJ5">
-        <v>2.44602110950489</v>
+        <v>1.2861954493335199</v>
       </c>
       <c r="HK5">
-        <v>0.890485975596089</v>
+        <v>1.94490423052301</v>
       </c>
       <c r="HL5">
-        <v>2.3297287804408899</v>
+        <v>1.2403174005108799</v>
       </c>
       <c r="HM5">
-        <v>1.08889778413917</v>
+        <v>1.2701954572038501</v>
       </c>
       <c r="HN5">
-        <v>1.6401223401787299</v>
+        <v>0.69435298754153696</v>
       </c>
       <c r="HO5" s="1">
-        <v>38613</v>
+        <v>39656</v>
       </c>
       <c r="HP5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="HQ5" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="HR5" t="s">
         <v>301</v>
       </c>
       <c r="HS5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="HT5" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="HU5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="HV5" t="s">
         <v>301</v>
       </c>
       <c r="HW5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="HX5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="HY5" t="s">
         <v>316</v>
@@ -4029,34 +4520,34 @@
         <v>301</v>
       </c>
       <c r="IA5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="IB5" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="IC5" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="ID5" t="s">
         <v>301</v>
       </c>
       <c r="IE5">
+        <v>3.5</v>
+      </c>
+      <c r="IF5" t="s">
+        <v>329</v>
+      </c>
+      <c r="IG5" t="s">
+        <v>330</v>
+      </c>
+      <c r="IH5" t="s">
+        <v>331</v>
+      </c>
+      <c r="II5">
         <v>3</v>
       </c>
-      <c r="IF5" t="s">
-        <v>321</v>
-      </c>
-      <c r="IG5" t="s">
-        <v>322</v>
-      </c>
-      <c r="IH5" t="s">
-        <v>301</v>
-      </c>
-      <c r="II5">
-        <v>2.5</v>
-      </c>
       <c r="IJ5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="IK5" t="s">
         <v>376</v>
@@ -4065,10 +4556,10 @@
         <v>377</v>
       </c>
       <c r="IM5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="IN5" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="IO5" t="s">
         <v>376</v>
@@ -4077,31 +4568,31 @@
         <v>377</v>
       </c>
       <c r="IQ5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="IR5" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="IS5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="IT5" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="IU5" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="IV5" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="IW5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="IX5" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="IY5" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:259" x14ac:dyDescent="0.25">
@@ -4112,442 +4603,418 @@
         <v>43</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="2">
+        <v>484837</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2244255.3078714199</v>
+      </c>
+      <c r="CA6">
+        <v>40</v>
+      </c>
+      <c r="CB6">
+        <v>35</v>
+      </c>
+      <c r="CC6">
+        <v>25</v>
+      </c>
+      <c r="CD6">
+        <v>30</v>
+      </c>
+      <c r="CE6">
+        <v>15</v>
+      </c>
+      <c r="CF6">
+        <v>15</v>
+      </c>
+      <c r="CG6">
+        <v>10</v>
+      </c>
+      <c r="CH6">
+        <v>12</v>
+      </c>
+      <c r="CI6">
+        <v>10</v>
+      </c>
+      <c r="CJ6">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="2">
-        <v>99104</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>311</v>
-      </c>
-      <c r="P6" s="2">
-        <v>3471860.0598240499</v>
-      </c>
-      <c r="BI6">
-        <v>20</v>
-      </c>
-      <c r="BJ6">
-        <v>18</v>
-      </c>
-      <c r="BK6">
-        <v>15</v>
-      </c>
-      <c r="BL6">
-        <v>17</v>
-      </c>
-      <c r="BM6">
-        <v>14</v>
-      </c>
-      <c r="BN6">
-        <v>12</v>
-      </c>
-      <c r="BO6">
-        <v>12</v>
-      </c>
-      <c r="BP6">
-        <v>10</v>
-      </c>
-      <c r="BQ6">
-        <v>10</v>
-      </c>
-      <c r="BR6">
-        <v>15</v>
-      </c>
-      <c r="BS6">
-        <v>9</v>
-      </c>
-      <c r="BT6">
-        <v>10</v>
-      </c>
-      <c r="BU6">
-        <v>8</v>
-      </c>
-      <c r="BV6">
-        <v>8</v>
-      </c>
-      <c r="BW6">
-        <v>7</v>
-      </c>
-      <c r="BX6">
-        <v>6</v>
-      </c>
-      <c r="BY6">
-        <v>5</v>
-      </c>
-      <c r="BZ6">
-        <v>4</v>
-      </c>
       <c r="EA6">
-        <v>3.95</v>
+        <v>2.95</v>
       </c>
       <c r="EB6">
-        <v>2.7518555187269498</v>
+        <v>6.62624112796939</v>
       </c>
       <c r="EC6">
-        <v>8.7799999999999994</v>
+        <v>6.78</v>
       </c>
       <c r="ED6">
-        <v>2.29878550999371</v>
+        <v>8.5808044852772607</v>
       </c>
       <c r="EE6">
-        <v>6.82</v>
+        <v>5.82</v>
       </c>
       <c r="EF6">
-        <v>2.68277971995014</v>
+        <v>2.4134537693488598</v>
       </c>
       <c r="EG6">
-        <v>7.62</v>
+        <v>6.62</v>
       </c>
       <c r="EH6">
-        <v>4.5836517835299597</v>
+        <v>8.3614895581496196</v>
       </c>
       <c r="EI6">
-        <v>5.12</v>
+        <v>4.12</v>
       </c>
       <c r="EJ6">
-        <v>7.5677936487495803</v>
+        <v>5.2716235553141502</v>
       </c>
       <c r="EK6">
-        <v>12.024840839871</v>
+        <v>8.5949115121975499</v>
       </c>
       <c r="EL6">
-        <v>9.0151629468719907</v>
+        <v>11.9829517896677</v>
       </c>
       <c r="EM6">
-        <v>0.67743954377972204</v>
+        <v>1.2506147516408499</v>
       </c>
       <c r="EN6">
-        <v>1.32645746610774</v>
+        <v>0.82004960103061098</v>
       </c>
       <c r="EO6">
-        <v>1.25237452943768</v>
+        <v>1.2915790437258401</v>
       </c>
       <c r="EP6">
-        <v>1.20096913145912</v>
+        <v>0.57276300636419297</v>
       </c>
       <c r="EQ6">
-        <v>1.0584042497357999</v>
+        <v>0.92422200924697595</v>
       </c>
       <c r="ER6">
-        <v>1.4307573256035599</v>
+        <v>1.35841275184301</v>
       </c>
       <c r="ES6">
-        <v>1.4500619670507999</v>
+        <v>1.4506071469375501</v>
       </c>
       <c r="ET6">
-        <v>1.3877041827582901</v>
+        <v>0.85091501255207802</v>
       </c>
       <c r="EU6">
-        <v>0.87064214706689003</v>
+        <v>1.3127995672574999</v>
       </c>
       <c r="EV6">
-        <v>0.61881791626807103</v>
+        <v>0.61752624677710399</v>
       </c>
       <c r="EW6">
-        <v>1.0598677938918799</v>
+        <v>2.4097305613263802</v>
       </c>
       <c r="EX6">
-        <v>0.69566832130200296</v>
+        <v>1.4832317502336601</v>
       </c>
       <c r="EY6">
-        <v>1.7848385564126299</v>
+        <v>0.55302262108324296</v>
       </c>
       <c r="EZ6">
-        <v>10.728873026061899</v>
+        <v>13.777718430237099</v>
       </c>
       <c r="FA6">
-        <v>1.3685991281894601</v>
+        <v>0.72359583851945197</v>
       </c>
       <c r="FB6">
-        <v>2.01569222092873</v>
+        <v>0.52878697725951096</v>
       </c>
       <c r="FC6">
-        <v>0.59060801954408904</v>
+        <v>1.24922522925294</v>
       </c>
       <c r="FD6">
-        <v>1.5912335786318601</v>
+        <v>2.3829296175530499</v>
       </c>
       <c r="FE6">
-        <v>21.274190990935999</v>
+        <v>14.7265931048662</v>
       </c>
       <c r="FF6">
-        <v>1.4929647961193</v>
+        <v>0.57379656473539797</v>
       </c>
       <c r="FG6">
-        <v>6.6480227207565701</v>
+        <v>6.2588288073078999</v>
       </c>
       <c r="FH6">
-        <v>9.8758967003164209</v>
+        <v>7.2834554261777003</v>
       </c>
       <c r="FI6">
-        <v>1.2373027704752599</v>
+        <v>4.3881703019024396</v>
       </c>
       <c r="FJ6">
-        <v>9.9974590595751707</v>
+        <v>9.96973153366514</v>
       </c>
       <c r="FK6">
-        <v>7.0441587603351898</v>
+        <v>5.6827693081341399</v>
       </c>
       <c r="FL6">
-        <v>1.1309019910109299</v>
+        <v>4.1552880292593697</v>
       </c>
       <c r="FM6">
-        <v>3.3241994946906201</v>
+        <v>5.1322218061443499</v>
       </c>
       <c r="FN6">
-        <v>5.2656547623658501</v>
+        <v>7.0080196466892399</v>
       </c>
       <c r="FO6">
-        <v>8.1946935901813802</v>
+        <v>6.6511035054181598</v>
       </c>
       <c r="FP6">
-        <v>7.7272384432037997</v>
+        <v>1.33014882601538</v>
       </c>
       <c r="FQ6">
-        <v>6.58119338021383</v>
+        <v>3.49643064683019</v>
       </c>
       <c r="FR6">
-        <v>8.4028351863085202</v>
+        <v>9.5481992196273104</v>
       </c>
       <c r="FS6">
-        <v>8.57907030822137</v>
+        <v>8.5449583424002409</v>
       </c>
       <c r="FT6">
-        <v>2.16243473636345</v>
+        <v>9.5864592453285002</v>
       </c>
       <c r="FU6">
-        <v>4.63134579591157</v>
+        <v>2.20613705605576</v>
       </c>
       <c r="FV6">
-        <v>8.0528771146702791</v>
+        <v>4.5688850408914297</v>
       </c>
       <c r="FW6">
-        <v>2.1599174971958401</v>
+        <v>2.1524125506199501</v>
       </c>
       <c r="FX6">
-        <v>1.7983228038135</v>
+        <v>2.0857228399054</v>
       </c>
       <c r="FY6">
-        <v>7.7343372134529202</v>
+        <v>2.6606891742073899</v>
       </c>
       <c r="FZ6">
-        <v>5.0267113014110896</v>
+        <v>5.7935553980951999</v>
       </c>
       <c r="GA6">
-        <v>1.15499470435582</v>
+        <v>0.73952426363850199</v>
       </c>
       <c r="GB6">
-        <v>1.64155660933782</v>
+        <v>1.21219345179569</v>
       </c>
       <c r="GC6">
-        <v>2.4647572338172101</v>
+        <v>0.72407780433610403</v>
       </c>
       <c r="GD6">
-        <v>1.35087287723283</v>
+        <v>1.51522075736891</v>
       </c>
       <c r="GE6">
-        <v>2.1197488917092602</v>
+        <v>1.0092813095275199</v>
       </c>
       <c r="GF6">
-        <v>1.57421308363709</v>
+        <v>1.67368223604175</v>
       </c>
       <c r="GG6">
-        <v>0.82136274651911101</v>
+        <v>0.87313404810261097</v>
       </c>
       <c r="GH6">
-        <v>1.83728643984886</v>
+        <v>2.35875197825517</v>
       </c>
       <c r="GI6">
-        <v>1.4622802037096301</v>
+        <v>1.5651788651031699</v>
       </c>
       <c r="GJ6">
-        <v>2.3590582884956501</v>
+        <v>2.1612388155754498</v>
       </c>
       <c r="GK6">
-        <v>1.5284688768272201</v>
+        <v>1.6848291377240801</v>
       </c>
       <c r="GL6">
-        <v>2.1167946962329198</v>
+        <v>1.10922753834674</v>
       </c>
       <c r="GM6">
-        <v>2.3186408041575599</v>
+        <v>1.0175599632000301</v>
       </c>
       <c r="GN6">
-        <v>2.0502656467222198</v>
+        <v>2.37899788312837</v>
       </c>
       <c r="GO6">
-        <v>1.15066066152652</v>
+        <v>1.27735457937896</v>
       </c>
       <c r="GP6">
-        <v>2.10439396150807</v>
+        <v>0.64910128735954098</v>
       </c>
       <c r="GQ6">
-        <v>1.95801433608197</v>
+        <v>2.0425406933718899</v>
       </c>
       <c r="GR6">
-        <v>0.62711670057204705</v>
+        <v>1.12196464343132</v>
       </c>
       <c r="GS6">
-        <v>1.92648957444599</v>
+        <v>2.02157009723379</v>
       </c>
       <c r="GT6">
-        <v>0.71578285398660801</v>
+        <v>0.56285837137346795</v>
       </c>
       <c r="GU6">
-        <v>2.0111022770860898</v>
+        <v>0.95759633098324404</v>
       </c>
       <c r="GV6">
-        <v>2.2429211803754301</v>
+        <v>2.1073441537982198</v>
       </c>
       <c r="GW6">
-        <v>0.72010384905535296</v>
+        <v>0.95587032508388303</v>
       </c>
       <c r="GX6">
-        <v>0.94421562094146005</v>
+        <v>0.73973073466736505</v>
       </c>
       <c r="GY6">
-        <v>2.44356416544192</v>
+        <v>2.4248945898842198</v>
       </c>
       <c r="GZ6">
-        <v>1.5053580464577201</v>
+        <v>0.60295750249997804</v>
       </c>
       <c r="HA6">
-        <v>0.98411054302300005</v>
+        <v>1.84427109481175</v>
       </c>
       <c r="HB6">
-        <v>1.5715493681495101</v>
+        <v>0.68057954010881605</v>
       </c>
       <c r="HC6">
-        <v>0.53317565785571197</v>
+        <v>1.52418611659856</v>
       </c>
       <c r="HD6">
-        <v>0.77504188829198595</v>
+        <v>1.1821327021005099</v>
       </c>
       <c r="HE6">
-        <v>1.61040162319892</v>
+        <v>1.5593011567120101</v>
       </c>
       <c r="HF6">
-        <v>1.19841914922532</v>
+        <v>1.9519113577404701</v>
       </c>
       <c r="HG6">
-        <v>2.2971083770541498</v>
+        <v>1.7128581193191701</v>
       </c>
       <c r="HH6">
-        <v>1.8837903953853801</v>
+        <v>1.8039225190052</v>
       </c>
       <c r="HI6">
-        <v>2.1984468209883499</v>
+        <v>1.8152257846006801</v>
       </c>
       <c r="HJ6">
-        <v>1.2861954493335199</v>
+        <v>2.2840931103542199</v>
       </c>
       <c r="HK6">
-        <v>1.94490423052301</v>
+        <v>1.06154472488171</v>
       </c>
       <c r="HL6">
-        <v>1.2403174005108799</v>
+        <v>0.53091323305773397</v>
       </c>
       <c r="HM6">
-        <v>1.2701954572038501</v>
+        <v>2.2022733430337098</v>
       </c>
       <c r="HN6">
-        <v>0.69435298754153696</v>
+        <v>1.7300144533983299</v>
       </c>
       <c r="HO6" s="1">
-        <v>39656</v>
+        <v>40700</v>
       </c>
       <c r="HP6" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="HQ6" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="HR6" t="s">
         <v>301</v>
       </c>
       <c r="HS6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="HT6" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="HU6" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="HV6" t="s">
         <v>301</v>
       </c>
       <c r="HW6">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="HX6" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="HY6" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="HZ6" t="s">
         <v>301</v>
       </c>
       <c r="IA6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="IB6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="IC6" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="ID6" t="s">
         <v>301</v>
       </c>
       <c r="IE6">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="IF6" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="IG6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="IH6" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="II6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IJ6" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="IK6" t="s">
         <v>376</v>
@@ -4556,10 +5023,10 @@
         <v>377</v>
       </c>
       <c r="IM6" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="IN6" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="IO6" t="s">
         <v>376</v>
@@ -4568,10 +5035,10 @@
         <v>377</v>
       </c>
       <c r="IQ6" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="IR6" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="IS6" t="s">
         <v>376</v>
@@ -4580,10 +5047,10 @@
         <v>395</v>
       </c>
       <c r="IU6" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="IV6" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="IW6" t="s">
         <v>376</v>
@@ -4592,7 +5059,7 @@
         <v>395</v>
       </c>
       <c r="IY6" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:259" x14ac:dyDescent="0.25">
@@ -4603,418 +5070,430 @@
         <v>43</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="2">
+        <v>389375</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1347886.04802565</v>
+      </c>
+      <c r="CK7">
+        <v>40</v>
+      </c>
+      <c r="CL7">
+        <v>45</v>
+      </c>
+      <c r="CM7">
+        <v>25</v>
+      </c>
+      <c r="CN7">
+        <v>20</v>
+      </c>
+      <c r="CO7">
+        <v>15</v>
+      </c>
+      <c r="CP7">
+        <v>10</v>
+      </c>
+      <c r="CQ7">
+        <v>10</v>
+      </c>
+      <c r="CR7">
+        <v>15</v>
+      </c>
+      <c r="CS7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="2">
-        <v>484837</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2244255.3078714199</v>
-      </c>
-      <c r="CA7">
-        <v>40</v>
-      </c>
-      <c r="CB7">
-        <v>35</v>
-      </c>
-      <c r="CC7">
-        <v>25</v>
-      </c>
-      <c r="CD7">
-        <v>30</v>
-      </c>
-      <c r="CE7">
-        <v>15</v>
-      </c>
-      <c r="CF7">
-        <v>15</v>
-      </c>
-      <c r="CG7">
-        <v>10</v>
-      </c>
-      <c r="CH7">
-        <v>12</v>
-      </c>
-      <c r="CI7">
-        <v>10</v>
-      </c>
-      <c r="CJ7">
-        <v>8</v>
+      <c r="CT7">
+        <v>5</v>
+      </c>
+      <c r="CU7">
+        <v>3</v>
+      </c>
+      <c r="CV7">
+        <v>3</v>
+      </c>
+      <c r="CW7">
+        <v>2</v>
+      </c>
+      <c r="CX7">
+        <v>2</v>
       </c>
       <c r="EA7">
-        <v>2.95</v>
+        <v>7.95</v>
       </c>
       <c r="EB7">
-        <v>6.62624112796939</v>
+        <v>2.28753819037393</v>
       </c>
       <c r="EC7">
-        <v>6.78</v>
+        <v>14.78</v>
       </c>
       <c r="ED7">
-        <v>8.5808044852772607</v>
+        <v>4.8815251312900996</v>
       </c>
       <c r="EE7">
-        <v>5.82</v>
+        <v>11.82</v>
       </c>
       <c r="EF7">
-        <v>2.4134537693488598</v>
+        <v>6.2508370525451804</v>
       </c>
       <c r="EG7">
-        <v>6.62</v>
+        <v>12.62</v>
       </c>
       <c r="EH7">
-        <v>8.3614895581496196</v>
+        <v>4.1666580100965902</v>
       </c>
       <c r="EI7">
-        <v>4.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="EJ7">
-        <v>5.2716235553141502</v>
+        <v>3.38635456056676</v>
       </c>
       <c r="EK7">
-        <v>8.5949115121975499</v>
+        <v>7.9359184426449296</v>
       </c>
       <c r="EL7">
-        <v>11.9829517896677</v>
+        <v>10.499639307777599</v>
       </c>
       <c r="EM7">
-        <v>1.2506147516408499</v>
+        <v>1.3068347392672599</v>
       </c>
       <c r="EN7">
-        <v>0.82004960103061098</v>
+        <v>1.3955232284962</v>
       </c>
       <c r="EO7">
-        <v>1.2915790437258401</v>
+        <v>1.2896181427945499</v>
       </c>
       <c r="EP7">
-        <v>0.57276300636419297</v>
+        <v>1.32186005929035</v>
       </c>
       <c r="EQ7">
-        <v>0.92422200924697595</v>
+        <v>1.40635438509473</v>
       </c>
       <c r="ER7">
-        <v>1.35841275184301</v>
+        <v>0.92899402737501802</v>
       </c>
       <c r="ES7">
-        <v>1.4506071469375501</v>
+        <v>1.07343788812328</v>
       </c>
       <c r="ET7">
-        <v>0.85091501255207802</v>
+        <v>0.61706701642760498</v>
       </c>
       <c r="EU7">
-        <v>1.3127995672574999</v>
+        <v>1.4472485773838499</v>
       </c>
       <c r="EV7">
-        <v>0.61752624677710399</v>
+        <v>1.14921030211606</v>
       </c>
       <c r="EW7">
-        <v>2.4097305613263802</v>
+        <v>1.9757938333915299</v>
       </c>
       <c r="EX7">
-        <v>1.4832317502336601</v>
+        <v>1.44694354156113</v>
       </c>
       <c r="EY7">
-        <v>0.55302262108324296</v>
+        <v>1.6715511625469199</v>
       </c>
       <c r="EZ7">
-        <v>13.777718430237099</v>
+        <v>37.320270936654197</v>
       </c>
       <c r="FA7">
-        <v>0.72359583851945197</v>
+        <v>1.46322253944061</v>
       </c>
       <c r="FB7">
-        <v>0.52878697725951096</v>
+        <v>0.73214528101383203</v>
       </c>
       <c r="FC7">
-        <v>1.24922522925294</v>
+        <v>1.7517198314284701</v>
       </c>
       <c r="FD7">
-        <v>2.3829296175530499</v>
+        <v>1.2722052756015401</v>
       </c>
       <c r="FE7">
-        <v>14.7265931048662</v>
+        <v>37.869486614566</v>
       </c>
       <c r="FF7">
-        <v>0.57379656473539797</v>
+        <v>1.0538542844013199</v>
       </c>
       <c r="FG7">
-        <v>6.2588288073078999</v>
+        <v>9.1104220944188992</v>
       </c>
       <c r="FH7">
-        <v>7.2834554261777003</v>
+        <v>5.8248672970970796</v>
       </c>
       <c r="FI7">
-        <v>4.3881703019024396</v>
+        <v>8.2949799770364905</v>
       </c>
       <c r="FJ7">
-        <v>9.96973153366514</v>
+        <v>5.9988853504236399</v>
       </c>
       <c r="FK7">
-        <v>5.6827693081341399</v>
+        <v>7.9508655256207499</v>
       </c>
       <c r="FL7">
-        <v>4.1552880292593697</v>
+        <v>6.3092591816916901</v>
       </c>
       <c r="FM7">
-        <v>5.1322218061443499</v>
+        <v>9.8202931775692903</v>
       </c>
       <c r="FN7">
-        <v>7.0080196466892399</v>
+        <v>2.5508788408146601</v>
       </c>
       <c r="FO7">
-        <v>6.6511035054181598</v>
+        <v>1.7358312875398401</v>
       </c>
       <c r="FP7">
-        <v>1.33014882601538</v>
+        <v>3.27193249909618</v>
       </c>
       <c r="FQ7">
-        <v>3.49643064683019</v>
+        <v>2.6930904375138498</v>
       </c>
       <c r="FR7">
-        <v>9.5481992196273104</v>
+        <v>7.5314755754952296</v>
       </c>
       <c r="FS7">
-        <v>8.5449583424002409</v>
+        <v>5.2182384381547298</v>
       </c>
       <c r="FT7">
-        <v>9.5864592453285002</v>
+        <v>6.45557171005792</v>
       </c>
       <c r="FU7">
-        <v>2.20613705605576</v>
+        <v>1.2590440868200501</v>
       </c>
       <c r="FV7">
-        <v>4.5688850408914297</v>
+        <v>6.5987803020508604</v>
       </c>
       <c r="FW7">
-        <v>2.1524125506199501</v>
+        <v>2.3671242416106399</v>
       </c>
       <c r="FX7">
-        <v>2.0857228399054</v>
+        <v>5.1470089122945302</v>
       </c>
       <c r="FY7">
-        <v>2.6606891742073899</v>
+        <v>2.8841439100303901</v>
       </c>
       <c r="FZ7">
-        <v>5.7935553980951999</v>
+        <v>3.1822345327125601</v>
       </c>
       <c r="GA7">
-        <v>0.73952426363850199</v>
+        <v>2.2810545614797899</v>
       </c>
       <c r="GB7">
-        <v>1.21219345179569</v>
+        <v>2.4730304975859498</v>
       </c>
       <c r="GC7">
-        <v>0.72407780433610403</v>
+        <v>1.2957111980914799</v>
       </c>
       <c r="GD7">
-        <v>1.51522075736891</v>
+        <v>0.98481946483016003</v>
       </c>
       <c r="GE7">
-        <v>1.0092813095275199</v>
+        <v>1.8630054444478501</v>
       </c>
       <c r="GF7">
-        <v>1.67368223604175</v>
+        <v>1.99087894836866</v>
       </c>
       <c r="GG7">
-        <v>0.87313404810261097</v>
+        <v>1.07019033738769</v>
       </c>
       <c r="GH7">
-        <v>2.35875197825517</v>
+        <v>1.61352578602785</v>
       </c>
       <c r="GI7">
-        <v>1.5651788651031699</v>
+        <v>0.60364707364485304</v>
       </c>
       <c r="GJ7">
-        <v>2.1612388155754498</v>
+        <v>2.4300538213330198</v>
       </c>
       <c r="GK7">
-        <v>1.6848291377240801</v>
+        <v>0.59290082543999501</v>
       </c>
       <c r="GL7">
-        <v>1.10922753834674</v>
+        <v>0.69534422801276696</v>
       </c>
       <c r="GM7">
-        <v>1.0175599632000301</v>
+        <v>1.8250445687079599</v>
       </c>
       <c r="GN7">
-        <v>2.37899788312837</v>
+        <v>2.2896547008552899</v>
       </c>
       <c r="GO7">
-        <v>1.27735457937896</v>
+        <v>1.04269806354779</v>
       </c>
       <c r="GP7">
-        <v>0.64910128735954098</v>
+        <v>2.4737738732010301</v>
       </c>
       <c r="GQ7">
-        <v>2.0425406933718899</v>
+        <v>0.64808930346817994</v>
       </c>
       <c r="GR7">
-        <v>1.12196464343132</v>
+        <v>1.1503666440534901</v>
       </c>
       <c r="GS7">
-        <v>2.02157009723379</v>
+        <v>1.62255439513899</v>
       </c>
       <c r="GT7">
-        <v>0.56285837137346795</v>
+        <v>1.7728208225275599</v>
       </c>
       <c r="GU7">
-        <v>0.95759633098324404</v>
+        <v>0.65395981965758598</v>
       </c>
       <c r="GV7">
-        <v>2.1073441537982198</v>
+        <v>0.87314011777207101</v>
       </c>
       <c r="GW7">
-        <v>0.95587032508388303</v>
+        <v>1.35421557725251</v>
       </c>
       <c r="GX7">
-        <v>0.73973073466736505</v>
+        <v>1.1752303428072499</v>
       </c>
       <c r="GY7">
-        <v>2.4248945898842198</v>
+        <v>1.0035645916507201</v>
       </c>
       <c r="GZ7">
-        <v>0.60295750249997804</v>
+        <v>1.05729292847322</v>
       </c>
       <c r="HA7">
-        <v>1.84427109481175</v>
+        <v>2.0232392306574298</v>
       </c>
       <c r="HB7">
-        <v>0.68057954010881605</v>
+        <v>2.1706049911784699</v>
       </c>
       <c r="HC7">
-        <v>1.52418611659856</v>
+        <v>0.95299155039587502</v>
       </c>
       <c r="HD7">
-        <v>1.1821327021005099</v>
+        <v>0.72694704248117803</v>
       </c>
       <c r="HE7">
-        <v>1.5593011567120101</v>
+        <v>0.98370458180090303</v>
       </c>
       <c r="HF7">
-        <v>1.9519113577404701</v>
+        <v>2.2942205199051502</v>
       </c>
       <c r="HG7">
-        <v>1.7128581193191701</v>
+        <v>0.51839410323325896</v>
       </c>
       <c r="HH7">
-        <v>1.8039225190052</v>
+        <v>0.94853861892111901</v>
       </c>
       <c r="HI7">
-        <v>1.8152257846006801</v>
+        <v>1.6366172066709399</v>
       </c>
       <c r="HJ7">
-        <v>2.2840931103542199</v>
+        <v>1.76227725199452</v>
       </c>
       <c r="HK7">
-        <v>1.06154472488171</v>
+        <v>0.54863193286290701</v>
       </c>
       <c r="HL7">
-        <v>0.53091323305773397</v>
+        <v>2.3566371251754501</v>
       </c>
       <c r="HM7">
-        <v>2.2022733430337098</v>
+        <v>1.13384401031255</v>
       </c>
       <c r="HN7">
-        <v>1.7300144533983299</v>
+        <v>2.4801077002085199</v>
       </c>
       <c r="HO7" s="1">
-        <v>40700</v>
+        <v>41743</v>
       </c>
       <c r="HP7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="HQ7" t="s">
-        <v>333</v>
+        <v>14</v>
       </c>
       <c r="HR7" t="s">
         <v>301</v>
       </c>
       <c r="HS7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="HT7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="HU7" t="s">
-        <v>333</v>
+        <v>14</v>
       </c>
       <c r="HV7" t="s">
         <v>301</v>
       </c>
       <c r="HW7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="HX7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="HY7" t="s">
-        <v>336</v>
+        <v>14</v>
       </c>
       <c r="HZ7" t="s">
         <v>301</v>
       </c>
       <c r="IA7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="IB7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="IC7" t="s">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="ID7" t="s">
         <v>301</v>
       </c>
       <c r="IE7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="IF7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="IG7" t="s">
-        <v>333</v>
+        <v>14</v>
       </c>
       <c r="IH7" t="s">
         <v>301</v>
       </c>
       <c r="II7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="IJ7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="IK7" t="s">
         <v>376</v>
@@ -5023,10 +5502,10 @@
         <v>377</v>
       </c>
       <c r="IM7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="IN7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="IO7" t="s">
         <v>376</v>
@@ -5035,10 +5514,10 @@
         <v>377</v>
       </c>
       <c r="IQ7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="IR7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="IS7" t="s">
         <v>376</v>
@@ -5047,10 +5526,10 @@
         <v>395</v>
       </c>
       <c r="IU7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="IV7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="IW7" t="s">
         <v>376</v>
@@ -5059,7 +5538,7 @@
         <v>395</v>
       </c>
       <c r="IY7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:259" x14ac:dyDescent="0.25">
@@ -5070,430 +5549,442 @@
         <v>43</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H8" s="2">
-        <v>389375</v>
+        <v>1118388</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O8" t="s">
+        <v>311</v>
+      </c>
+      <c r="P8" s="2">
+        <v>4220270.7391870199</v>
+      </c>
+      <c r="CY8">
+        <v>40</v>
+      </c>
+      <c r="CZ8">
+        <v>25</v>
+      </c>
+      <c r="DA8">
         <v>30</v>
       </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" t="s">
-        <v>313</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1347886.04802565</v>
-      </c>
-      <c r="CK8">
-        <v>40</v>
-      </c>
-      <c r="CL8">
-        <v>45</v>
-      </c>
-      <c r="CM8">
-        <v>25</v>
-      </c>
-      <c r="CN8">
+      <c r="DB8">
+        <v>15</v>
+      </c>
+      <c r="DC8">
         <v>20</v>
       </c>
-      <c r="CO8">
+      <c r="DD8">
+        <v>12</v>
+      </c>
+      <c r="DE8">
         <v>15</v>
       </c>
-      <c r="CP8">
+      <c r="DF8">
         <v>10</v>
       </c>
-      <c r="CQ8">
-        <v>10</v>
-      </c>
-      <c r="CR8">
+      <c r="DG8">
         <v>15</v>
       </c>
-      <c r="CS8">
-        <v>5</v>
-      </c>
-      <c r="CT8">
-        <v>5</v>
-      </c>
-      <c r="CU8">
+      <c r="DH8">
+        <v>15</v>
+      </c>
+      <c r="DI8">
+        <v>7</v>
+      </c>
+      <c r="DJ8">
+        <v>8</v>
+      </c>
+      <c r="DK8">
+        <v>6</v>
+      </c>
+      <c r="DL8">
+        <v>7</v>
+      </c>
+      <c r="DM8">
+        <v>4</v>
+      </c>
+      <c r="DN8">
+        <v>4</v>
+      </c>
+      <c r="DO8">
         <v>3</v>
       </c>
-      <c r="CV8">
-        <v>3</v>
-      </c>
-      <c r="CW8">
-        <v>2</v>
-      </c>
-      <c r="CX8">
-        <v>2</v>
+      <c r="DP8">
+        <v>4</v>
       </c>
       <c r="EA8">
-        <v>7.95</v>
+        <v>5.95</v>
       </c>
       <c r="EB8">
-        <v>2.28753819037393</v>
+        <v>5.7247841450596804</v>
       </c>
       <c r="EC8">
-        <v>14.78</v>
+        <v>10.78</v>
       </c>
       <c r="ED8">
-        <v>4.8815251312900996</v>
+        <v>3.0164841012150698</v>
       </c>
       <c r="EE8">
-        <v>11.82</v>
+        <v>8.82</v>
       </c>
       <c r="EF8">
-        <v>6.2508370525451804</v>
+        <v>6.3250809728808504</v>
       </c>
       <c r="EG8">
-        <v>12.62</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="EH8">
-        <v>4.1666580100965902</v>
+        <v>5.51177136564508</v>
       </c>
       <c r="EI8">
-        <v>10.119999999999999</v>
+        <v>7.12</v>
       </c>
       <c r="EJ8">
-        <v>3.38635456056676</v>
+        <v>3.2514963413686799</v>
       </c>
       <c r="EK8">
-        <v>7.9359184426449296</v>
+        <v>13.093611554785101</v>
       </c>
       <c r="EL8">
-        <v>10.499639307777599</v>
+        <v>11.019668772577001</v>
       </c>
       <c r="EM8">
-        <v>1.3068347392672599</v>
+        <v>1.4905051420006701</v>
       </c>
       <c r="EN8">
-        <v>1.3955232284962</v>
+        <v>0.889201678734163</v>
       </c>
       <c r="EO8">
-        <v>1.2896181427945499</v>
+        <v>0.59120610304869003</v>
       </c>
       <c r="EP8">
-        <v>1.32186005929035</v>
+        <v>1.2062422271564901</v>
       </c>
       <c r="EQ8">
-        <v>1.40635438509473</v>
+        <v>0.61119748230615101</v>
       </c>
       <c r="ER8">
-        <v>0.92899402737501802</v>
+        <v>1.25087106779149</v>
       </c>
       <c r="ES8">
-        <v>1.07343788812328</v>
+        <v>1.1318372121697899</v>
       </c>
       <c r="ET8">
-        <v>0.61706701642760498</v>
+        <v>0.64299168205283497</v>
       </c>
       <c r="EU8">
-        <v>1.4472485773838499</v>
+        <v>1.48600106382287</v>
       </c>
       <c r="EV8">
-        <v>1.14921030211606</v>
+        <v>1.24604487926542</v>
       </c>
       <c r="EW8">
-        <v>1.9757938333915299</v>
+        <v>1.6087081050228</v>
       </c>
       <c r="EX8">
-        <v>1.44694354156113</v>
+        <v>0.84640373982003003</v>
       </c>
       <c r="EY8">
-        <v>1.6715511625469199</v>
+        <v>2.3804604828499101</v>
       </c>
       <c r="EZ8">
-        <v>37.320270936654197</v>
+        <v>12.8475459384091</v>
       </c>
       <c r="FA8">
-        <v>1.46322253944061</v>
+        <v>0.51215447468981601</v>
       </c>
       <c r="FB8">
-        <v>0.73214528101383203</v>
+        <v>0.59200528404350505</v>
       </c>
       <c r="FC8">
-        <v>1.7517198314284701</v>
+        <v>1.5062725171601701</v>
       </c>
       <c r="FD8">
-        <v>1.2722052756015401</v>
+        <v>2.42238112764782</v>
       </c>
       <c r="FE8">
-        <v>37.869486614566</v>
+        <v>35.157713871195298</v>
       </c>
       <c r="FF8">
-        <v>1.0538542844013199</v>
+        <v>1.4693025356190901</v>
       </c>
       <c r="FG8">
-        <v>9.1104220944188992</v>
+        <v>1.4090174230731201</v>
       </c>
       <c r="FH8">
-        <v>5.8248672970970796</v>
+        <v>3.7857485465769498</v>
       </c>
       <c r="FI8">
-        <v>8.2949799770364905</v>
+        <v>9.8854851638345007</v>
       </c>
       <c r="FJ8">
-        <v>5.9988853504236399</v>
+        <v>7.9208867366245901</v>
       </c>
       <c r="FK8">
-        <v>7.9508655256207499</v>
+        <v>5.68147151000794</v>
       </c>
       <c r="FL8">
-        <v>6.3092591816916901</v>
+        <v>4.5301964058975903</v>
       </c>
       <c r="FM8">
-        <v>9.8202931775692903</v>
+        <v>5.4335628459358203</v>
       </c>
       <c r="FN8">
-        <v>2.5508788408146601</v>
+        <v>2.7306011692780299</v>
       </c>
       <c r="FO8">
-        <v>1.7358312875398401</v>
+        <v>8.8622076169609905</v>
       </c>
       <c r="FP8">
-        <v>3.27193249909618</v>
+        <v>7.4201462729609702</v>
       </c>
       <c r="FQ8">
-        <v>2.6930904375138498</v>
+        <v>5.1732856444598303</v>
       </c>
       <c r="FR8">
-        <v>7.5314755754952296</v>
+        <v>6.5207367634221001</v>
       </c>
       <c r="FS8">
-        <v>5.2182384381547298</v>
+        <v>4.7333755210389796</v>
       </c>
       <c r="FT8">
-        <v>6.45557171005792</v>
+        <v>3.0577852495311602</v>
       </c>
       <c r="FU8">
-        <v>1.2590440868200501</v>
+        <v>7.7962353010625698</v>
       </c>
       <c r="FV8">
-        <v>6.5987803020508604</v>
+        <v>8.7612733787207002</v>
       </c>
       <c r="FW8">
-        <v>2.3671242416106399</v>
+        <v>2.2494445538446901</v>
       </c>
       <c r="FX8">
-        <v>5.1470089122945302</v>
+        <v>2.8570034656521299</v>
       </c>
       <c r="FY8">
-        <v>2.8841439100303901</v>
+        <v>4.3342489251224299</v>
       </c>
       <c r="FZ8">
-        <v>3.1822345327125601</v>
+        <v>3.4231890785444201</v>
       </c>
       <c r="GA8">
-        <v>2.2810545614797899</v>
+        <v>1.68718490710809</v>
       </c>
       <c r="GB8">
-        <v>2.4730304975859498</v>
+        <v>1.7115496387137701</v>
       </c>
       <c r="GC8">
-        <v>1.2957111980914799</v>
+        <v>2.4389408665507299</v>
       </c>
       <c r="GD8">
-        <v>0.98481946483016003</v>
+        <v>0.72967364947840696</v>
       </c>
       <c r="GE8">
-        <v>1.8630054444478501</v>
+        <v>2.02045571977937</v>
       </c>
       <c r="GF8">
-        <v>1.99087894836866</v>
+        <v>1.3633190924593499</v>
       </c>
       <c r="GG8">
-        <v>1.07019033738769</v>
+        <v>0.84674719058950898</v>
       </c>
       <c r="GH8">
-        <v>1.61352578602785</v>
+        <v>1.6432253789397899</v>
       </c>
       <c r="GI8">
-        <v>0.60364707364485304</v>
+        <v>1.1732085563878401</v>
       </c>
       <c r="GJ8">
-        <v>2.4300538213330198</v>
+        <v>0.74859444697108901</v>
       </c>
       <c r="GK8">
-        <v>0.59290082543999501</v>
+        <v>1.7150897038028701</v>
       </c>
       <c r="GL8">
-        <v>0.69534422801276696</v>
+        <v>1.86846605302431</v>
       </c>
       <c r="GM8">
-        <v>1.8250445687079599</v>
+        <v>1.1234221521788199</v>
       </c>
       <c r="GN8">
-        <v>2.2896547008552899</v>
+        <v>1.6957999576221701</v>
       </c>
       <c r="GO8">
-        <v>1.04269806354779</v>
+        <v>2.1574750183038498</v>
       </c>
       <c r="GP8">
-        <v>2.4737738732010301</v>
+        <v>2.04448953859331</v>
       </c>
       <c r="GQ8">
-        <v>0.64808930346817994</v>
+        <v>1.2169314570885399</v>
       </c>
       <c r="GR8">
-        <v>1.1503666440534901</v>
+        <v>1.9592123566761199</v>
       </c>
       <c r="GS8">
-        <v>1.62255439513899</v>
+        <v>2.0419343599091202</v>
       </c>
       <c r="GT8">
-        <v>1.7728208225275599</v>
+        <v>1.12871196215265</v>
       </c>
       <c r="GU8">
-        <v>0.65395981965758598</v>
+        <v>1.0795029058275301</v>
       </c>
       <c r="GV8">
-        <v>0.87314011777207101</v>
+        <v>2.2851179969799502</v>
       </c>
       <c r="GW8">
-        <v>1.35421557725251</v>
+        <v>2.1360295318449798</v>
       </c>
       <c r="GX8">
-        <v>1.1752303428072499</v>
+        <v>2.3858194078250299</v>
       </c>
       <c r="GY8">
-        <v>1.0035645916507201</v>
+        <v>1.49449701178477</v>
       </c>
       <c r="GZ8">
-        <v>1.05729292847322</v>
+        <v>2.3165317719332998</v>
       </c>
       <c r="HA8">
-        <v>2.0232392306574298</v>
+        <v>0.97527508798479901</v>
       </c>
       <c r="HB8">
-        <v>2.1706049911784699</v>
+        <v>1.1415601299434699</v>
       </c>
       <c r="HC8">
-        <v>0.95299155039587502</v>
+        <v>1.7903455808188899</v>
       </c>
       <c r="HD8">
-        <v>0.72694704248117803</v>
+        <v>2.3493872365571198</v>
       </c>
       <c r="HE8">
-        <v>0.98370458180090303</v>
+        <v>0.68620553561179798</v>
       </c>
       <c r="HF8">
-        <v>2.2942205199051502</v>
+        <v>2.2741728485302302</v>
       </c>
       <c r="HG8">
-        <v>0.51839410323325896</v>
+        <v>0.70294308573206399</v>
       </c>
       <c r="HH8">
-        <v>0.94853861892111901</v>
+        <v>1.9243584426950699</v>
       </c>
       <c r="HI8">
-        <v>1.6366172066709399</v>
+        <v>0.68734953565618495</v>
       </c>
       <c r="HJ8">
-        <v>1.76227725199452</v>
+        <v>2.0896226070832902</v>
       </c>
       <c r="HK8">
-        <v>0.54863193286290701</v>
+        <v>1.7909445918143301</v>
       </c>
       <c r="HL8">
-        <v>2.3566371251754501</v>
+        <v>1.35636829663462</v>
       </c>
       <c r="HM8">
-        <v>1.13384401031255</v>
+        <v>0.83898549337218498</v>
       </c>
       <c r="HN8">
-        <v>2.4801077002085199</v>
+        <v>0.78016803047304795</v>
       </c>
       <c r="HO8" s="1">
-        <v>41743</v>
+        <v>42787</v>
       </c>
       <c r="HP8" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="HQ8" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="HR8" t="s">
         <v>301</v>
       </c>
       <c r="HS8">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="HT8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="HU8" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="HV8" t="s">
         <v>301</v>
       </c>
       <c r="HW8">
-        <v>10</v>
+        <v>-7</v>
       </c>
       <c r="HX8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="HY8" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="HZ8" t="s">
         <v>301</v>
       </c>
       <c r="IA8">
-        <v>8</v>
+        <v>-6.5</v>
       </c>
       <c r="IB8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="IC8" t="s">
-        <v>14</v>
+        <v>346</v>
       </c>
       <c r="ID8" t="s">
         <v>301</v>
       </c>
       <c r="IE8">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="IF8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="IG8" t="s">
-        <v>14</v>
+        <v>346</v>
       </c>
       <c r="IH8" t="s">
         <v>301</v>
       </c>
       <c r="II8">
-        <v>6</v>
+        <v>-5.5</v>
       </c>
       <c r="IJ8" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="IK8" t="s">
         <v>376</v>
@@ -5502,10 +5993,10 @@
         <v>377</v>
       </c>
       <c r="IM8" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="IN8" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="IO8" t="s">
         <v>376</v>
@@ -5514,31 +6005,31 @@
         <v>377</v>
       </c>
       <c r="IQ8" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="IR8" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="IS8" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="IT8" t="s">
         <v>395</v>
       </c>
       <c r="IU8" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="IV8" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="IW8" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="IX8" t="s">
         <v>395</v>
       </c>
       <c r="IY8" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:259" x14ac:dyDescent="0.25">
@@ -5549,961 +6040,470 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H9" s="2">
-        <v>1118388</v>
+        <v>966014</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P9" s="2">
-        <v>4220270.7391870199</v>
-      </c>
-      <c r="CY9">
+        <v>288289.10991539201</v>
+      </c>
+      <c r="DQ9">
+        <v>45</v>
+      </c>
+      <c r="DR9">
         <v>40</v>
       </c>
-      <c r="CZ9">
+      <c r="DS9">
+        <v>40</v>
+      </c>
+      <c r="DT9">
+        <v>35</v>
+      </c>
+      <c r="DU9">
         <v>25</v>
       </c>
-      <c r="DA9">
-        <v>30</v>
-      </c>
-      <c r="DB9">
+      <c r="DV9">
         <v>15</v>
       </c>
-      <c r="DC9">
-        <v>20</v>
-      </c>
-      <c r="DD9">
-        <v>12</v>
-      </c>
-      <c r="DE9">
+      <c r="DW9">
         <v>15</v>
       </c>
-      <c r="DF9">
+      <c r="DX9">
+        <v>5</v>
+      </c>
+      <c r="DY9">
         <v>10</v>
       </c>
-      <c r="DG9">
-        <v>15</v>
-      </c>
-      <c r="DH9">
-        <v>15</v>
-      </c>
-      <c r="DI9">
-        <v>7</v>
-      </c>
-      <c r="DJ9">
-        <v>8</v>
-      </c>
-      <c r="DK9">
-        <v>6</v>
-      </c>
-      <c r="DL9">
-        <v>7</v>
-      </c>
-      <c r="DM9">
-        <v>4</v>
-      </c>
-      <c r="DN9">
-        <v>4</v>
-      </c>
-      <c r="DO9">
-        <v>3</v>
-      </c>
-      <c r="DP9">
-        <v>4</v>
+      <c r="DZ9">
+        <v>5</v>
       </c>
       <c r="EA9">
-        <v>5.95</v>
+        <v>6.95</v>
       </c>
       <c r="EB9">
-        <v>5.7247841450596804</v>
+        <v>6.3411570776606103</v>
       </c>
       <c r="EC9">
-        <v>10.78</v>
+        <v>13.78</v>
       </c>
       <c r="ED9">
-        <v>3.0164841012150698</v>
+        <v>6.1779460804384296</v>
       </c>
       <c r="EE9">
-        <v>8.82</v>
+        <v>11.82</v>
       </c>
       <c r="EF9">
-        <v>6.3250809728808504</v>
+        <v>7.0994392119856498</v>
       </c>
       <c r="EG9">
-        <v>9.6199999999999992</v>
+        <v>12.62</v>
       </c>
       <c r="EH9">
-        <v>5.51177136564508</v>
+        <v>2.6276510507381201</v>
       </c>
       <c r="EI9">
-        <v>7.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="EJ9">
-        <v>3.2514963413686799</v>
+        <v>4.00194318531676</v>
       </c>
       <c r="EK9">
-        <v>13.093611554785101</v>
+        <v>13.1011339467918</v>
       </c>
       <c r="EL9">
-        <v>11.019668772577001</v>
+        <v>11.957926694360999</v>
       </c>
       <c r="EM9">
-        <v>1.4905051420006701</v>
+        <v>0.91261767691142603</v>
       </c>
       <c r="EN9">
-        <v>0.889201678734163</v>
+        <v>0.51083765148029803</v>
       </c>
       <c r="EO9">
-        <v>0.59120610304869003</v>
+        <v>0.99442030470258103</v>
       </c>
       <c r="EP9">
-        <v>1.2062422271564901</v>
+        <v>0.58134878064189899</v>
       </c>
       <c r="EQ9">
-        <v>0.61119748230615101</v>
+        <v>0.99262510429085904</v>
       </c>
       <c r="ER9">
-        <v>1.25087106779149</v>
+        <v>1.25454287408468</v>
       </c>
       <c r="ES9">
-        <v>1.1318372121697899</v>
+        <v>0.94844552197831899</v>
       </c>
       <c r="ET9">
-        <v>0.64299168205283497</v>
+        <v>1.26151063171747</v>
       </c>
       <c r="EU9">
-        <v>1.48600106382287</v>
+        <v>1.2533781852589401</v>
       </c>
       <c r="EV9">
-        <v>1.24604487926542</v>
+        <v>1.08336876509715</v>
       </c>
       <c r="EW9">
-        <v>1.6087081050228</v>
+        <v>1.7234414924687</v>
       </c>
       <c r="EX9">
-        <v>0.84640373982003003</v>
+        <v>1.3677032984759401</v>
       </c>
       <c r="EY9">
-        <v>2.3804604828499101</v>
+        <v>1.6509483557517499</v>
       </c>
       <c r="EZ9">
-        <v>12.8475459384091</v>
+        <v>22.759025211750401</v>
       </c>
       <c r="FA9">
-        <v>0.51215447468981601</v>
+        <v>1.4698788267076299</v>
       </c>
       <c r="FB9">
-        <v>0.59200528404350505</v>
+        <v>0.58145760463794005</v>
       </c>
       <c r="FC9">
-        <v>1.5062725171601701</v>
+        <v>2.2129796823766399</v>
       </c>
       <c r="FD9">
-        <v>2.42238112764782</v>
+        <v>2.3107012839121199</v>
       </c>
       <c r="FE9">
-        <v>35.157713871195298</v>
+        <v>45.098880541082103</v>
       </c>
       <c r="FF9">
-        <v>1.4693025356190901</v>
+        <v>1.0230978441701399</v>
       </c>
       <c r="FG9">
-        <v>1.4090174230731201</v>
+        <v>3.5286687063300701</v>
       </c>
       <c r="FH9">
-        <v>3.7857485465769498</v>
+        <v>8.3241551773625293</v>
       </c>
       <c r="FI9">
-        <v>9.8854851638345007</v>
+        <v>2.3537520199317501</v>
       </c>
       <c r="FJ9">
-        <v>7.9208867366245901</v>
+        <v>9.5028915689418501</v>
       </c>
       <c r="FK9">
-        <v>5.68147151000794</v>
+        <v>8.6696335028668603</v>
       </c>
       <c r="FL9">
-        <v>4.5301964058975903</v>
+        <v>4.93727429821356</v>
       </c>
       <c r="FM9">
-        <v>5.4335628459358203</v>
+        <v>3.9587644925875698</v>
       </c>
       <c r="FN9">
-        <v>2.7306011692780299</v>
+        <v>1.3678175463983</v>
       </c>
       <c r="FO9">
-        <v>8.8622076169609905</v>
+        <v>9.2878516047863098</v>
       </c>
       <c r="FP9">
-        <v>7.4201462729609702</v>
+        <v>9.0568615391847906</v>
       </c>
       <c r="FQ9">
-        <v>5.1732856444598303</v>
+        <v>4.1801700522344696</v>
       </c>
       <c r="FR9">
-        <v>6.5207367634221001</v>
+        <v>4.7641873266155699</v>
       </c>
       <c r="FS9">
-        <v>4.7333755210389796</v>
+        <v>3.4606636473763501</v>
       </c>
       <c r="FT9">
-        <v>3.0577852495311602</v>
+        <v>7.0453061596527098</v>
       </c>
       <c r="FU9">
-        <v>7.7962353010625698</v>
+        <v>6.5827859621811804</v>
       </c>
       <c r="FV9">
-        <v>8.7612733787207002</v>
+        <v>9.5456856129187795</v>
       </c>
       <c r="FW9">
-        <v>2.2494445538446901</v>
+        <v>6.7678727032289299</v>
       </c>
       <c r="FX9">
-        <v>2.8570034656521299</v>
+        <v>4.2784287494326696</v>
       </c>
       <c r="FY9">
-        <v>4.3342489251224299</v>
+        <v>5.3607068667191902</v>
       </c>
       <c r="FZ9">
-        <v>3.4231890785444201</v>
+        <v>4.3955574679416003</v>
       </c>
       <c r="GA9">
-        <v>1.68718490710809</v>
+        <v>1.8582046382889701</v>
       </c>
       <c r="GB9">
-        <v>1.7115496387137701</v>
+        <v>0.97445358347198896</v>
       </c>
       <c r="GC9">
-        <v>2.4389408665507299</v>
+        <v>2.2310142517879599</v>
       </c>
       <c r="GD9">
-        <v>0.72967364947840696</v>
+        <v>1.7212400848832601</v>
       </c>
       <c r="GE9">
-        <v>2.02045571977937</v>
+        <v>1.6912774812156799</v>
       </c>
       <c r="GF9">
-        <v>1.3633190924593499</v>
+        <v>0.75516060559112697</v>
       </c>
       <c r="GG9">
-        <v>0.84674719058950898</v>
+        <v>2.2935308492528499</v>
       </c>
       <c r="GH9">
-        <v>1.6432253789397899</v>
+        <v>1.0599581873205599</v>
       </c>
       <c r="GI9">
-        <v>1.1732085563878401</v>
+        <v>0.76882935387794804</v>
       </c>
       <c r="GJ9">
-        <v>0.74859444697108901</v>
+        <v>1.9617349504072801</v>
       </c>
       <c r="GK9">
-        <v>1.7150897038028701</v>
+        <v>0.84104824737458295</v>
       </c>
       <c r="GL9">
-        <v>1.86846605302431</v>
+        <v>1.3803049874791999</v>
       </c>
       <c r="GM9">
-        <v>1.1234221521788199</v>
+        <v>1.5401360423556201</v>
       </c>
       <c r="GN9">
-        <v>1.6957999576221701</v>
+        <v>2.3437484700462301</v>
       </c>
       <c r="GO9">
-        <v>2.1574750183038498</v>
+        <v>1.2135066533871699</v>
       </c>
       <c r="GP9">
-        <v>2.04448953859331</v>
+        <v>0.89743136306834403</v>
       </c>
       <c r="GQ9">
-        <v>1.2169314570885399</v>
+        <v>0.73173811905025898</v>
       </c>
       <c r="GR9">
-        <v>1.9592123566761199</v>
+        <v>1.77511494271042</v>
       </c>
       <c r="GS9">
-        <v>2.0419343599091202</v>
+        <v>1.4875911927287799</v>
       </c>
       <c r="GT9">
-        <v>1.12871196215265</v>
+        <v>1.5171413823294</v>
       </c>
       <c r="GU9">
-        <v>1.0795029058275301</v>
+        <v>0.82244257450800795</v>
       </c>
       <c r="GV9">
-        <v>2.2851179969799502</v>
+        <v>1.5786844838312999</v>
       </c>
       <c r="GW9">
-        <v>2.1360295318449798</v>
+        <v>2.2214611665126802</v>
       </c>
       <c r="GX9">
-        <v>2.3858194078250299</v>
+        <v>1.14640586404151</v>
       </c>
       <c r="GY9">
-        <v>1.49449701178477</v>
+        <v>1.10175661963353</v>
       </c>
       <c r="GZ9">
-        <v>2.3165317719332998</v>
+        <v>0.97912378133394395</v>
       </c>
       <c r="HA9">
-        <v>0.97527508798479901</v>
+        <v>1.95643269722371</v>
       </c>
       <c r="HB9">
-        <v>1.1415601299434699</v>
+        <v>0.87303702079970802</v>
       </c>
       <c r="HC9">
-        <v>1.7903455808188899</v>
+        <v>0.84873285800998199</v>
       </c>
       <c r="HD9">
-        <v>2.3493872365571198</v>
+        <v>2.2546787067619598</v>
       </c>
       <c r="HE9">
-        <v>0.68620553561179798</v>
+        <v>2.2944315159066502</v>
       </c>
       <c r="HF9">
-        <v>2.2741728485302302</v>
+        <v>2.0597510917152402</v>
       </c>
       <c r="HG9">
-        <v>0.70294308573206399</v>
+        <v>1.8270035382161101</v>
       </c>
       <c r="HH9">
-        <v>1.9243584426950699</v>
+        <v>0.97449817499360003</v>
       </c>
       <c r="HI9">
-        <v>0.68734953565618495</v>
+        <v>1.2354316061188599</v>
       </c>
       <c r="HJ9">
-        <v>2.0896226070832902</v>
+        <v>1.50527418621038</v>
       </c>
       <c r="HK9">
-        <v>1.7909445918143301</v>
+        <v>0.854221358814097</v>
       </c>
       <c r="HL9">
-        <v>1.35636829663462</v>
+        <v>2.43330963808733</v>
       </c>
       <c r="HM9">
-        <v>0.83898549337218498</v>
+        <v>1.6136025249167001</v>
       </c>
       <c r="HN9">
-        <v>0.78016803047304795</v>
+        <v>1.5366593047274699</v>
       </c>
       <c r="HO9" s="1">
-        <v>42787</v>
+        <v>43831</v>
       </c>
       <c r="HP9" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="HQ9" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="HR9" t="s">
         <v>301</v>
       </c>
       <c r="HS9">
-        <v>-9</v>
+        <v>-5.5</v>
       </c>
       <c r="HT9" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="HU9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="HV9" t="s">
         <v>301</v>
       </c>
       <c r="HW9">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="HX9" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="HY9" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="HZ9" t="s">
         <v>301</v>
       </c>
       <c r="IA9">
-        <v>-6.5</v>
+        <v>-4.5</v>
       </c>
       <c r="IB9" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="IC9" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="ID9" t="s">
         <v>301</v>
       </c>
       <c r="IE9">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="IF9" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="IG9" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="IH9" t="s">
         <v>301</v>
       </c>
       <c r="II9">
-        <v>-5.5</v>
+        <v>-3.5</v>
       </c>
       <c r="IJ9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="IK9" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="IL9" t="s">
         <v>377</v>
       </c>
       <c r="IM9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="IN9" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="IO9" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="IP9" t="s">
         <v>377</v>
       </c>
       <c r="IQ9" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="IR9" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="IS9" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="IT9" t="s">
         <v>395</v>
       </c>
       <c r="IU9" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="IV9" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="IW9" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="IX9" t="s">
         <v>395</v>
       </c>
       <c r="IY9" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45291</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="2">
-        <v>966014</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>69</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" t="s">
-        <v>308</v>
-      </c>
-      <c r="P10" s="2">
-        <v>288289.10991539201</v>
-      </c>
-      <c r="DQ10">
-        <v>45</v>
-      </c>
-      <c r="DR10">
-        <v>40</v>
-      </c>
-      <c r="DS10">
-        <v>40</v>
-      </c>
-      <c r="DT10">
-        <v>35</v>
-      </c>
-      <c r="DU10">
-        <v>25</v>
-      </c>
-      <c r="DV10">
-        <v>15</v>
-      </c>
-      <c r="DW10">
-        <v>15</v>
-      </c>
-      <c r="DX10">
-        <v>5</v>
-      </c>
-      <c r="DY10">
-        <v>10</v>
-      </c>
-      <c r="DZ10">
-        <v>5</v>
-      </c>
-      <c r="EA10">
-        <v>6.95</v>
-      </c>
-      <c r="EB10">
-        <v>6.3411570776606103</v>
-      </c>
-      <c r="EC10">
-        <v>13.78</v>
-      </c>
-      <c r="ED10">
-        <v>6.1779460804384296</v>
-      </c>
-      <c r="EE10">
-        <v>11.82</v>
-      </c>
-      <c r="EF10">
-        <v>7.0994392119856498</v>
-      </c>
-      <c r="EG10">
-        <v>12.62</v>
-      </c>
-      <c r="EH10">
-        <v>2.6276510507381201</v>
-      </c>
-      <c r="EI10">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="EJ10">
-        <v>4.00194318531676</v>
-      </c>
-      <c r="EK10">
-        <v>13.1011339467918</v>
-      </c>
-      <c r="EL10">
-        <v>11.957926694360999</v>
-      </c>
-      <c r="EM10">
-        <v>0.91261767691142603</v>
-      </c>
-      <c r="EN10">
-        <v>0.51083765148029803</v>
-      </c>
-      <c r="EO10">
-        <v>0.99442030470258103</v>
-      </c>
-      <c r="EP10">
-        <v>0.58134878064189899</v>
-      </c>
-      <c r="EQ10">
-        <v>0.99262510429085904</v>
-      </c>
-      <c r="ER10">
-        <v>1.25454287408468</v>
-      </c>
-      <c r="ES10">
-        <v>0.94844552197831899</v>
-      </c>
-      <c r="ET10">
-        <v>1.26151063171747</v>
-      </c>
-      <c r="EU10">
-        <v>1.2533781852589401</v>
-      </c>
-      <c r="EV10">
-        <v>1.08336876509715</v>
-      </c>
-      <c r="EW10">
-        <v>1.7234414924687</v>
-      </c>
-      <c r="EX10">
-        <v>1.3677032984759401</v>
-      </c>
-      <c r="EY10">
-        <v>1.6509483557517499</v>
-      </c>
-      <c r="EZ10">
-        <v>22.759025211750401</v>
-      </c>
-      <c r="FA10">
-        <v>1.4698788267076299</v>
-      </c>
-      <c r="FB10">
-        <v>0.58145760463794005</v>
-      </c>
-      <c r="FC10">
-        <v>2.2129796823766399</v>
-      </c>
-      <c r="FD10">
-        <v>2.3107012839121199</v>
-      </c>
-      <c r="FE10">
-        <v>45.098880541082103</v>
-      </c>
-      <c r="FF10">
-        <v>1.0230978441701399</v>
-      </c>
-      <c r="FG10">
-        <v>3.5286687063300701</v>
-      </c>
-      <c r="FH10">
-        <v>8.3241551773625293</v>
-      </c>
-      <c r="FI10">
-        <v>2.3537520199317501</v>
-      </c>
-      <c r="FJ10">
-        <v>9.5028915689418501</v>
-      </c>
-      <c r="FK10">
-        <v>8.6696335028668603</v>
-      </c>
-      <c r="FL10">
-        <v>4.93727429821356</v>
-      </c>
-      <c r="FM10">
-        <v>3.9587644925875698</v>
-      </c>
-      <c r="FN10">
-        <v>1.3678175463983</v>
-      </c>
-      <c r="FO10">
-        <v>9.2878516047863098</v>
-      </c>
-      <c r="FP10">
-        <v>9.0568615391847906</v>
-      </c>
-      <c r="FQ10">
-        <v>4.1801700522344696</v>
-      </c>
-      <c r="FR10">
-        <v>4.7641873266155699</v>
-      </c>
-      <c r="FS10">
-        <v>3.4606636473763501</v>
-      </c>
-      <c r="FT10">
-        <v>7.0453061596527098</v>
-      </c>
-      <c r="FU10">
-        <v>6.5827859621811804</v>
-      </c>
-      <c r="FV10">
-        <v>9.5456856129187795</v>
-      </c>
-      <c r="FW10">
-        <v>6.7678727032289299</v>
-      </c>
-      <c r="FX10">
-        <v>4.2784287494326696</v>
-      </c>
-      <c r="FY10">
-        <v>5.3607068667191902</v>
-      </c>
-      <c r="FZ10">
-        <v>4.3955574679416003</v>
-      </c>
-      <c r="GA10">
-        <v>1.8582046382889701</v>
-      </c>
-      <c r="GB10">
-        <v>0.97445358347198896</v>
-      </c>
-      <c r="GC10">
-        <v>2.2310142517879599</v>
-      </c>
-      <c r="GD10">
-        <v>1.7212400848832601</v>
-      </c>
-      <c r="GE10">
-        <v>1.6912774812156799</v>
-      </c>
-      <c r="GF10">
-        <v>0.75516060559112697</v>
-      </c>
-      <c r="GG10">
-        <v>2.2935308492528499</v>
-      </c>
-      <c r="GH10">
-        <v>1.0599581873205599</v>
-      </c>
-      <c r="GI10">
-        <v>0.76882935387794804</v>
-      </c>
-      <c r="GJ10">
-        <v>1.9617349504072801</v>
-      </c>
-      <c r="GK10">
-        <v>0.84104824737458295</v>
-      </c>
-      <c r="GL10">
-        <v>1.3803049874791999</v>
-      </c>
-      <c r="GM10">
-        <v>1.5401360423556201</v>
-      </c>
-      <c r="GN10">
-        <v>2.3437484700462301</v>
-      </c>
-      <c r="GO10">
-        <v>1.2135066533871699</v>
-      </c>
-      <c r="GP10">
-        <v>0.89743136306834403</v>
-      </c>
-      <c r="GQ10">
-        <v>0.73173811905025898</v>
-      </c>
-      <c r="GR10">
-        <v>1.77511494271042</v>
-      </c>
-      <c r="GS10">
-        <v>1.4875911927287799</v>
-      </c>
-      <c r="GT10">
-        <v>1.5171413823294</v>
-      </c>
-      <c r="GU10">
-        <v>0.82244257450800795</v>
-      </c>
-      <c r="GV10">
-        <v>1.5786844838312999</v>
-      </c>
-      <c r="GW10">
-        <v>2.2214611665126802</v>
-      </c>
-      <c r="GX10">
-        <v>1.14640586404151</v>
-      </c>
-      <c r="GY10">
-        <v>1.10175661963353</v>
-      </c>
-      <c r="GZ10">
-        <v>0.97912378133394395</v>
-      </c>
-      <c r="HA10">
-        <v>1.95643269722371</v>
-      </c>
-      <c r="HB10">
-        <v>0.87303702079970802</v>
-      </c>
-      <c r="HC10">
-        <v>0.84873285800998199</v>
-      </c>
-      <c r="HD10">
-        <v>2.2546787067619598</v>
-      </c>
-      <c r="HE10">
-        <v>2.2944315159066502</v>
-      </c>
-      <c r="HF10">
-        <v>2.0597510917152402</v>
-      </c>
-      <c r="HG10">
-        <v>1.8270035382161101</v>
-      </c>
-      <c r="HH10">
-        <v>0.97449817499360003</v>
-      </c>
-      <c r="HI10">
-        <v>1.2354316061188599</v>
-      </c>
-      <c r="HJ10">
-        <v>1.50527418621038</v>
-      </c>
-      <c r="HK10">
-        <v>0.854221358814097</v>
-      </c>
-      <c r="HL10">
-        <v>2.43330963808733</v>
-      </c>
-      <c r="HM10">
-        <v>1.6136025249167001</v>
-      </c>
-      <c r="HN10">
-        <v>1.5366593047274699</v>
-      </c>
-      <c r="HO10" s="1">
-        <v>43831</v>
-      </c>
-      <c r="HP10" t="s">
-        <v>353</v>
-      </c>
-      <c r="HQ10" t="s">
-        <v>330</v>
-      </c>
-      <c r="HR10" t="s">
-        <v>301</v>
-      </c>
-      <c r="HS10">
-        <v>-5.5</v>
-      </c>
-      <c r="HT10" t="s">
-        <v>354</v>
-      </c>
-      <c r="HU10" t="s">
-        <v>346</v>
-      </c>
-      <c r="HV10" t="s">
-        <v>301</v>
-      </c>
-      <c r="HW10">
-        <v>-5</v>
-      </c>
-      <c r="HX10" t="s">
-        <v>355</v>
-      </c>
-      <c r="HY10" t="s">
-        <v>356</v>
-      </c>
-      <c r="HZ10" t="s">
-        <v>301</v>
-      </c>
-      <c r="IA10">
-        <v>-4.5</v>
-      </c>
-      <c r="IB10" t="s">
-        <v>357</v>
-      </c>
-      <c r="IC10" t="s">
-        <v>330</v>
-      </c>
-      <c r="ID10" t="s">
-        <v>301</v>
-      </c>
-      <c r="IE10">
-        <v>-4</v>
-      </c>
-      <c r="IF10" t="s">
-        <v>358</v>
-      </c>
-      <c r="IG10" t="s">
-        <v>316</v>
-      </c>
-      <c r="IH10" t="s">
-        <v>301</v>
-      </c>
-      <c r="II10">
-        <v>-3.5</v>
-      </c>
-      <c r="IJ10" t="s">
-        <v>417</v>
-      </c>
-      <c r="IK10" t="s">
-        <v>418</v>
-      </c>
-      <c r="IL10" t="s">
-        <v>377</v>
-      </c>
-      <c r="IM10" t="s">
-        <v>419</v>
-      </c>
-      <c r="IN10" t="s">
-        <v>422</v>
-      </c>
-      <c r="IO10" t="s">
-        <v>418</v>
-      </c>
-      <c r="IP10" t="s">
-        <v>377</v>
-      </c>
-      <c r="IQ10" t="s">
-        <v>423</v>
-      </c>
-      <c r="IR10" t="s">
-        <v>424</v>
-      </c>
-      <c r="IS10" t="s">
-        <v>376</v>
-      </c>
-      <c r="IT10" t="s">
-        <v>395</v>
-      </c>
-      <c r="IU10" t="s">
-        <v>425</v>
-      </c>
-      <c r="IV10" t="s">
-        <v>426</v>
-      </c>
-      <c r="IW10" t="s">
-        <v>376</v>
-      </c>
-      <c r="IX10" t="s">
-        <v>395</v>
-      </c>
-      <c r="IY10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="DZ16" s="3"/>
-      <c r="EA16" s="3"/>
-      <c r="EB16" s="3"/>
-      <c r="EC16" s="3"/>
+    <row r="15" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="DZ15" s="3"/>
+      <c r="EA15" s="3"/>
+      <c r="EB15" s="3"/>
+      <c r="EC15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
